--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/食品类农村居民消费价格指数(上月=100).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/食品类农村居民消费价格指数(上月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -507,4932 +507,4932 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.2</v>
+        <v>101.5</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>100.9</v>
+        <v>100.4</v>
       </c>
       <c r="E3" t="n">
-        <v>102</v>
+        <v>102.6</v>
       </c>
       <c r="F3" t="n">
-        <v>97.09999999999999</v>
+        <v>101.4</v>
       </c>
       <c r="G3" t="n">
-        <v>101.4</v>
+        <v>101.9</v>
       </c>
       <c r="H3" t="n">
-        <v>104.1</v>
+        <v>109.1</v>
       </c>
       <c r="I3" t="n">
-        <v>99.59999999999999</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.5</v>
+        <v>106.1</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>101.1</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>104.8</v>
+        <v>102.8</v>
       </c>
       <c r="F4" t="n">
-        <v>99.3</v>
+        <v>102.2</v>
       </c>
       <c r="G4" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="H4" t="n">
-        <v>104.1</v>
+        <v>109.4</v>
       </c>
       <c r="I4" t="n">
-        <v>97.40000000000001</v>
+        <v>108.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>100.4</v>
+        <v>99.7</v>
       </c>
       <c r="E5" t="n">
-        <v>102.6</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>101.4</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>101.9</v>
+        <v>99.3</v>
       </c>
       <c r="H5" t="n">
-        <v>109.1</v>
+        <v>101.8</v>
       </c>
       <c r="I5" t="n">
-        <v>105.2</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106.1</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="E6" t="n">
-        <v>102.8</v>
+        <v>98.8</v>
       </c>
       <c r="F6" t="n">
-        <v>102.2</v>
+        <v>99</v>
       </c>
       <c r="G6" t="n">
-        <v>102.4</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>109.4</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>108.2</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.59999999999999</v>
+        <v>100.62285955</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>99.7</v>
+        <v>100.00703681</v>
       </c>
       <c r="E7" t="n">
-        <v>97.40000000000001</v>
+        <v>106.47620745</v>
       </c>
       <c r="F7" t="n">
-        <v>97.09999999999999</v>
+        <v>104.88199569</v>
       </c>
       <c r="G7" t="n">
-        <v>99.3</v>
+        <v>101.00046215</v>
       </c>
       <c r="H7" t="n">
-        <v>101.8</v>
+        <v>99.05909541</v>
       </c>
       <c r="I7" t="n">
-        <v>101.3</v>
+        <v>87.19766903999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97.90000000000001</v>
+        <v>102.3</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>99.7</v>
+        <v>100.6</v>
       </c>
       <c r="E8" t="n">
-        <v>98.8</v>
+        <v>107.3</v>
       </c>
       <c r="F8" t="n">
-        <v>99</v>
+        <v>103.4</v>
       </c>
       <c r="G8" t="n">
-        <v>99.40000000000001</v>
+        <v>101.9</v>
       </c>
       <c r="H8" t="n">
-        <v>97.59999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>99.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.62285955</v>
+        <v>101.1</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>100.00703681</v>
+        <v>101</v>
       </c>
       <c r="E9" t="n">
-        <v>106.47620745</v>
+        <v>106.5</v>
       </c>
       <c r="F9" t="n">
-        <v>104.88199569</v>
+        <v>105.7</v>
       </c>
       <c r="G9" t="n">
-        <v>101.00046215</v>
+        <v>103.8</v>
       </c>
       <c r="H9" t="n">
-        <v>99.05909541</v>
+        <v>100.7</v>
       </c>
       <c r="I9" t="n">
-        <v>87.19766903999999</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.3</v>
+        <v>99.7</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
         <v>100.6</v>
       </c>
       <c r="E10" t="n">
-        <v>107.3</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
-        <v>103.4</v>
+        <v>102.6</v>
       </c>
       <c r="G10" t="n">
-        <v>101.9</v>
+        <v>100.2</v>
       </c>
       <c r="H10" t="n">
-        <v>89.40000000000001</v>
+        <v>104.8</v>
       </c>
       <c r="I10" t="n">
-        <v>95.90000000000001</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.1</v>
+        <v>99.2</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="E11" t="n">
-        <v>106.5</v>
+        <v>102</v>
       </c>
       <c r="F11" t="n">
-        <v>105.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>103.8</v>
+        <v>101.4</v>
       </c>
       <c r="H11" t="n">
-        <v>100.7</v>
+        <v>104.1</v>
       </c>
       <c r="I11" t="n">
-        <v>111</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>100.6</v>
+        <v>101.1</v>
       </c>
       <c r="E12" t="n">
-        <v>98</v>
+        <v>104.8</v>
       </c>
       <c r="F12" t="n">
-        <v>102.6</v>
+        <v>99.3</v>
       </c>
       <c r="G12" t="n">
-        <v>100.2</v>
+        <v>102.3</v>
       </c>
       <c r="H12" t="n">
-        <v>104.8</v>
+        <v>104.1</v>
       </c>
       <c r="I12" t="n">
-        <v>100.9</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.7</v>
+        <v>103.1</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>99.59999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="E13" t="n">
-        <v>96.2</v>
+        <v>104.5</v>
       </c>
       <c r="F13" t="n">
-        <v>96.8</v>
+        <v>101.4</v>
       </c>
       <c r="G13" t="n">
-        <v>98.5</v>
+        <v>103.2</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2</v>
+        <v>106.5</v>
       </c>
       <c r="I13" t="n">
-        <v>101.8</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.40000000000001</v>
+        <v>110.3</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>99.59999999999999</v>
+        <v>100.6</v>
       </c>
       <c r="E14" t="n">
-        <v>97.2</v>
+        <v>105.8</v>
       </c>
       <c r="F14" t="n">
-        <v>96.3</v>
+        <v>102.5</v>
       </c>
       <c r="G14" t="n">
-        <v>98.59999999999999</v>
+        <v>106.3</v>
       </c>
       <c r="H14" t="n">
-        <v>100.6</v>
+        <v>110.2</v>
       </c>
       <c r="I14" t="n">
-        <v>98.8</v>
+        <v>136.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.39883464</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>99.70333697</v>
+        <v>100.4</v>
       </c>
       <c r="E15" t="n">
-        <v>102.36612139</v>
+        <v>97.8</v>
       </c>
       <c r="F15" t="n">
-        <v>98.82378687000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>100.7210954</v>
+        <v>98.5</v>
       </c>
       <c r="H15" t="n">
-        <v>101.01359627</v>
+        <v>97</v>
       </c>
       <c r="I15" t="n">
-        <v>105.21197828</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.1</v>
+        <v>103.95653164</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>100.4</v>
+        <v>100.54722867</v>
       </c>
       <c r="E16" t="n">
-        <v>104.5</v>
+        <v>99.96501682</v>
       </c>
       <c r="F16" t="n">
-        <v>101.4</v>
+        <v>99.34660948</v>
       </c>
       <c r="G16" t="n">
-        <v>103.2</v>
+        <v>99.88630395</v>
       </c>
       <c r="H16" t="n">
-        <v>106.5</v>
+        <v>102.40392766</v>
       </c>
       <c r="I16" t="n">
-        <v>108.3</v>
+        <v>91.66188483000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>110.3</v>
+        <v>103.3</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>100.6</v>
+        <v>101.5</v>
       </c>
       <c r="E17" t="n">
-        <v>105.8</v>
+        <v>98.5</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5</v>
+        <v>102.8</v>
       </c>
       <c r="G17" t="n">
-        <v>106.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>110.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>136.8</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>96.40000000000001</v>
+        <v>102</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="E18" t="n">
-        <v>97.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>95.59999999999999</v>
+        <v>102.5</v>
       </c>
       <c r="G18" t="n">
-        <v>98.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>97</v>
+        <v>92.3</v>
       </c>
       <c r="I18" t="n">
-        <v>86.2</v>
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>103.95653164</v>
+        <v>100.7</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>100.54722867</v>
+        <v>100.5</v>
       </c>
       <c r="E19" t="n">
-        <v>99.96501682</v>
+        <v>98.7</v>
       </c>
       <c r="F19" t="n">
-        <v>99.34660948</v>
+        <v>99.5</v>
       </c>
       <c r="G19" t="n">
-        <v>99.88630395</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>102.40392766</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>91.66188483000001</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>103.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>101.5</v>
+        <v>100.1</v>
       </c>
       <c r="E20" t="n">
-        <v>98.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>102.8</v>
+        <v>103.8</v>
       </c>
       <c r="G20" t="n">
-        <v>98.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="I20" t="n">
-        <v>84.3</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102</v>
+        <v>96.7</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>100.6</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>98.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="F21" t="n">
-        <v>102.5</v>
+        <v>96.8</v>
       </c>
       <c r="G21" t="n">
-        <v>99.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="H21" t="n">
-        <v>92.3</v>
+        <v>100.2</v>
       </c>
       <c r="I21" t="n">
-        <v>94.09999999999999</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>100.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>98.7</v>
+        <v>97.2</v>
       </c>
       <c r="F22" t="n">
-        <v>99.5</v>
+        <v>96.3</v>
       </c>
       <c r="G22" t="n">
-        <v>99.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>95.09999999999999</v>
+        <v>100.6</v>
       </c>
       <c r="I22" t="n">
-        <v>103.7</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98.09999999999999</v>
+        <v>99.39883464</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>100.1</v>
+        <v>99.70333697</v>
       </c>
       <c r="E23" t="n">
-        <v>98.90000000000001</v>
+        <v>102.36612139</v>
       </c>
       <c r="F23" t="n">
-        <v>103.8</v>
+        <v>98.82378687000001</v>
       </c>
       <c r="G23" t="n">
-        <v>99.59999999999999</v>
+        <v>100.7210954</v>
       </c>
       <c r="H23" t="n">
-        <v>101</v>
+        <v>101.01359627</v>
       </c>
       <c r="I23" t="n">
-        <v>100.4</v>
+        <v>105.21197828</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.0919332</v>
+        <v>104.28370583</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>100.34411197</v>
+        <v>100.13596322</v>
       </c>
       <c r="E24" t="n">
-        <v>99.69480186</v>
+        <v>103.22433235</v>
       </c>
       <c r="F24" t="n">
-        <v>97.55479156</v>
+        <v>100.96779497</v>
       </c>
       <c r="G24" t="n">
-        <v>99.18431144</v>
+        <v>103.27762293</v>
       </c>
       <c r="H24" t="n">
-        <v>97.47084532</v>
+        <v>106.6240514</v>
       </c>
       <c r="I24" t="n">
-        <v>94.18240844</v>
+        <v>122.74329566</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.90135287</v>
+        <v>102.2</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>100.2960066</v>
+        <v>101.3</v>
       </c>
       <c r="E25" t="n">
-        <v>99.90798411999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>97.51044829</v>
+        <v>99.2</v>
       </c>
       <c r="G25" t="n">
-        <v>100.54417181</v>
+        <v>100.6</v>
       </c>
       <c r="H25" t="n">
-        <v>98.20801539</v>
+        <v>104.1</v>
       </c>
       <c r="I25" t="n">
-        <v>106.91590643</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>101.47644719</v>
+        <v>100.54511332</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>101.49309572</v>
+        <v>100.46305726</v>
       </c>
       <c r="E26" t="n">
-        <v>101.75802857</v>
+        <v>96.42258950999999</v>
       </c>
       <c r="F26" t="n">
-        <v>100.92913348</v>
+        <v>102.40840483</v>
       </c>
       <c r="G26" t="n">
-        <v>102.62332445</v>
+        <v>99.40084880000001</v>
       </c>
       <c r="H26" t="n">
-        <v>102.88201811</v>
+        <v>106.89744966</v>
       </c>
       <c r="I26" t="n">
-        <v>114.62528663</v>
+        <v>97.00294255999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>104.28370583</v>
+        <v>100.01742951</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>100.13596322</v>
+        <v>100.77388263</v>
       </c>
       <c r="E27" t="n">
-        <v>103.22433235</v>
+        <v>96.20279523000001</v>
       </c>
       <c r="F27" t="n">
-        <v>100.96779497</v>
+        <v>101.47023859</v>
       </c>
       <c r="G27" t="n">
-        <v>103.27762293</v>
+        <v>99.28804257</v>
       </c>
       <c r="H27" t="n">
-        <v>106.6240514</v>
+        <v>111.61072475</v>
       </c>
       <c r="I27" t="n">
-        <v>122.74329566</v>
+        <v>92.222435</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.2</v>
+        <v>99.61622589</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>101.3</v>
+        <v>100.42189297</v>
       </c>
       <c r="E28" t="n">
-        <v>98.90000000000001</v>
+        <v>101.89066971</v>
       </c>
       <c r="F28" t="n">
-        <v>99.2</v>
+        <v>98.17142131999999</v>
       </c>
       <c r="G28" t="n">
-        <v>100.6</v>
+        <v>100.05456602</v>
       </c>
       <c r="H28" t="n">
-        <v>104.1</v>
+        <v>96.6574758</v>
       </c>
       <c r="I28" t="n">
-        <v>103.6</v>
+        <v>99.00861734999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.54511332</v>
+        <v>99.37478382</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>100.46305726</v>
+        <v>100.42241735</v>
       </c>
       <c r="E29" t="n">
-        <v>96.42258950999999</v>
+        <v>103.99165326</v>
       </c>
       <c r="F29" t="n">
-        <v>102.40840483</v>
+        <v>104.98441837</v>
       </c>
       <c r="G29" t="n">
-        <v>99.40084880000001</v>
+        <v>101.62364191</v>
       </c>
       <c r="H29" t="n">
-        <v>106.89744966</v>
+        <v>93.4937487</v>
       </c>
       <c r="I29" t="n">
-        <v>97.00294255999999</v>
+        <v>111.1578459</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.01742951</v>
+        <v>98.9266982</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>100.77388263</v>
+        <v>100.66217772</v>
       </c>
       <c r="E30" t="n">
-        <v>96.20279523000001</v>
+        <v>101.9182866</v>
       </c>
       <c r="F30" t="n">
-        <v>101.47023859</v>
+        <v>103.59845193</v>
       </c>
       <c r="G30" t="n">
-        <v>99.28804257</v>
+        <v>100.9996133</v>
       </c>
       <c r="H30" t="n">
-        <v>111.61072475</v>
+        <v>99.95279177</v>
       </c>
       <c r="I30" t="n">
-        <v>92.222435</v>
+        <v>104.03917469</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.61622589</v>
+        <v>99.0919332</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>100.42189297</v>
+        <v>100.34411197</v>
       </c>
       <c r="E31" t="n">
-        <v>101.89066971</v>
+        <v>99.69480186</v>
       </c>
       <c r="F31" t="n">
-        <v>98.17142131999999</v>
+        <v>97.55479156</v>
       </c>
       <c r="G31" t="n">
-        <v>100.05456602</v>
+        <v>99.18431144</v>
       </c>
       <c r="H31" t="n">
-        <v>96.6574758</v>
+        <v>97.47084532</v>
       </c>
       <c r="I31" t="n">
-        <v>99.00861734999999</v>
+        <v>94.18240844</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99.37478382</v>
+        <v>99.90135287</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>100.42241735</v>
+        <v>100.2960066</v>
       </c>
       <c r="E32" t="n">
-        <v>103.99165326</v>
+        <v>99.90798411999999</v>
       </c>
       <c r="F32" t="n">
-        <v>104.98441837</v>
+        <v>97.51044829</v>
       </c>
       <c r="G32" t="n">
-        <v>101.62364191</v>
+        <v>100.54417181</v>
       </c>
       <c r="H32" t="n">
-        <v>93.4937487</v>
+        <v>98.20801539</v>
       </c>
       <c r="I32" t="n">
-        <v>111.1578459</v>
+        <v>106.91590643</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98.9266982</v>
+        <v>101.47644719</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>100.66217772</v>
+        <v>101.49309572</v>
       </c>
       <c r="E33" t="n">
-        <v>101.9182866</v>
+        <v>101.75802857</v>
       </c>
       <c r="F33" t="n">
-        <v>103.59845193</v>
+        <v>100.92913348</v>
       </c>
       <c r="G33" t="n">
-        <v>100.9996133</v>
+        <v>102.62332445</v>
       </c>
       <c r="H33" t="n">
-        <v>99.95279177</v>
+        <v>102.88201811</v>
       </c>
       <c r="I33" t="n">
-        <v>104.03917469</v>
+        <v>114.62528663</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.54330385999999</v>
+        <v>102.36083531</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>100.76683549</v>
+        <v>101.19142023</v>
       </c>
       <c r="E34" t="n">
-        <v>101.27455094</v>
+        <v>100.5489865</v>
       </c>
       <c r="F34" t="n">
-        <v>97.89950193</v>
+        <v>101.58977474</v>
       </c>
       <c r="G34" t="n">
-        <v>100.90581688</v>
+        <v>101.53710584</v>
       </c>
       <c r="H34" t="n">
-        <v>98.44983007</v>
+        <v>105.2592317</v>
       </c>
       <c r="I34" t="n">
-        <v>104.79411075</v>
+        <v>106.12921612</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.36384891</v>
+        <v>107.45747063</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>102.99813463</v>
+        <v>100.90627355</v>
       </c>
       <c r="E35" t="n">
-        <v>102.93548486</v>
+        <v>101.46028632</v>
       </c>
       <c r="F35" t="n">
-        <v>103.29044804</v>
+        <v>101.74395151</v>
       </c>
       <c r="G35" t="n">
-        <v>102.23563254</v>
+        <v>102.91961772</v>
       </c>
       <c r="H35" t="n">
-        <v>104.72480862</v>
+        <v>111.54208874</v>
       </c>
       <c r="I35" t="n">
-        <v>98.44680418999999</v>
+        <v>112.44485767</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100.96749135</v>
+        <v>97.02990745</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>101.821361</v>
+        <v>101.49777655</v>
       </c>
       <c r="E36" t="n">
-        <v>101.45092559</v>
+        <v>95.66017432</v>
       </c>
       <c r="F36" t="n">
-        <v>102.09785373</v>
+        <v>96.7650323</v>
       </c>
       <c r="G36" t="n">
-        <v>100.78705145</v>
+        <v>98.52113597</v>
       </c>
       <c r="H36" t="n">
-        <v>105.8740762</v>
+        <v>100.86771068</v>
       </c>
       <c r="I36" t="n">
-        <v>91.78098192</v>
+        <v>96.32202141</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>102.36083531</v>
+        <v>99.17799264</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>101.19142023</v>
+        <v>101.73965604</v>
       </c>
       <c r="E37" t="n">
-        <v>100.5489865</v>
+        <v>96.93938507</v>
       </c>
       <c r="F37" t="n">
-        <v>101.58977474</v>
+        <v>98.30973333</v>
       </c>
       <c r="G37" t="n">
-        <v>101.53710584</v>
+        <v>99.97449340999999</v>
       </c>
       <c r="H37" t="n">
-        <v>105.2592317</v>
+        <v>104.53136726</v>
       </c>
       <c r="I37" t="n">
-        <v>106.12921612</v>
+        <v>102.07005732</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>107.45747063</v>
+        <v>99.72059539</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>100.90627355</v>
+        <v>101.82694342</v>
       </c>
       <c r="E38" t="n">
-        <v>101.46028632</v>
+        <v>99.25581584</v>
       </c>
       <c r="F38" t="n">
-        <v>101.74395151</v>
+        <v>99.87085946000001</v>
       </c>
       <c r="G38" t="n">
-        <v>102.91961772</v>
+        <v>99.57816712</v>
       </c>
       <c r="H38" t="n">
-        <v>111.54208874</v>
+        <v>105.59076488</v>
       </c>
       <c r="I38" t="n">
-        <v>112.44485767</v>
+        <v>89.7666905</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>97.02990745</v>
+        <v>100.98748718</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>101.49777655</v>
+        <v>100.74112226</v>
       </c>
       <c r="E39" t="n">
-        <v>95.66017432</v>
+        <v>99.44707685</v>
       </c>
       <c r="F39" t="n">
-        <v>96.7650323</v>
+        <v>101.59747792</v>
       </c>
       <c r="G39" t="n">
-        <v>98.52113597</v>
+        <v>98.46712592999999</v>
       </c>
       <c r="H39" t="n">
-        <v>100.86771068</v>
+        <v>95.94889662</v>
       </c>
       <c r="I39" t="n">
-        <v>96.32202141</v>
+        <v>84.99662096</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.17799264</v>
+        <v>100.9322898</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>101.73965604</v>
+        <v>100.38797716</v>
       </c>
       <c r="E40" t="n">
-        <v>96.93938507</v>
+        <v>104.21284786</v>
       </c>
       <c r="F40" t="n">
-        <v>98.30973333</v>
+        <v>103.15557796</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97449340999999</v>
+        <v>101.097422</v>
       </c>
       <c r="H40" t="n">
-        <v>104.53136726</v>
+        <v>93.99466837</v>
       </c>
       <c r="I40" t="n">
-        <v>102.07005732</v>
+        <v>103.44761522</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.72059539</v>
+        <v>100.5047796</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>101.82694342</v>
+        <v>100.66325709</v>
       </c>
       <c r="E41" t="n">
-        <v>99.25581584</v>
+        <v>105.35350126</v>
       </c>
       <c r="F41" t="n">
-        <v>99.87085946000001</v>
+        <v>106.68063243</v>
       </c>
       <c r="G41" t="n">
-        <v>99.57816712</v>
+        <v>102.34838597</v>
       </c>
       <c r="H41" t="n">
-        <v>105.59076488</v>
+        <v>98.75414537</v>
       </c>
       <c r="I41" t="n">
-        <v>89.7666905</v>
+        <v>108.57006669</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.98748718</v>
+        <v>100.43280095</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>100.74112226</v>
+        <v>100.75004226</v>
       </c>
       <c r="E42" t="n">
-        <v>99.44707685</v>
+        <v>102.2562257</v>
       </c>
       <c r="F42" t="n">
-        <v>101.59747792</v>
+        <v>104.09357874</v>
       </c>
       <c r="G42" t="n">
-        <v>98.46712592999999</v>
+        <v>101.3991896</v>
       </c>
       <c r="H42" t="n">
-        <v>95.94889662</v>
+        <v>102.69905684</v>
       </c>
       <c r="I42" t="n">
-        <v>84.99662096</v>
+        <v>103.55271289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.9322898</v>
+        <v>99.54330385999999</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>100.38797716</v>
+        <v>100.76683549</v>
       </c>
       <c r="E43" t="n">
-        <v>104.21284786</v>
+        <v>101.27455094</v>
       </c>
       <c r="F43" t="n">
-        <v>103.15557796</v>
+        <v>97.89950193</v>
       </c>
       <c r="G43" t="n">
-        <v>101.097422</v>
+        <v>100.90581688</v>
       </c>
       <c r="H43" t="n">
-        <v>93.99466837</v>
+        <v>98.44983007</v>
       </c>
       <c r="I43" t="n">
-        <v>103.44761522</v>
+        <v>104.79411075</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.5047796</v>
+        <v>100.36384891</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>100.66325709</v>
+        <v>102.99813463</v>
       </c>
       <c r="E44" t="n">
-        <v>105.35350126</v>
+        <v>102.93548486</v>
       </c>
       <c r="F44" t="n">
-        <v>106.68063243</v>
+        <v>103.29044804</v>
       </c>
       <c r="G44" t="n">
-        <v>102.34838597</v>
+        <v>102.23563254</v>
       </c>
       <c r="H44" t="n">
-        <v>98.75414537</v>
+        <v>104.72480862</v>
       </c>
       <c r="I44" t="n">
-        <v>108.57006669</v>
+        <v>98.44680418999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.43280095</v>
+        <v>100.96749135</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>100.75004226</v>
+        <v>101.821361</v>
       </c>
       <c r="E45" t="n">
-        <v>102.2562257</v>
+        <v>101.45092559</v>
       </c>
       <c r="F45" t="n">
-        <v>104.09357874</v>
+        <v>102.09785373</v>
       </c>
       <c r="G45" t="n">
-        <v>101.3991896</v>
+        <v>100.78705145</v>
       </c>
       <c r="H45" t="n">
-        <v>102.69905684</v>
+        <v>105.8740762</v>
       </c>
       <c r="I45" t="n">
-        <v>103.55271289</v>
+        <v>91.78098192</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.19173057</v>
+        <v>102.95944392</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>100.31478096</v>
+        <v>100.90957437</v>
       </c>
       <c r="E46" t="n">
-        <v>98.95522136</v>
+        <v>101.40469305</v>
       </c>
       <c r="F46" t="n">
-        <v>96.21716089</v>
+        <v>102.5095105</v>
       </c>
       <c r="G46" t="n">
-        <v>99.62899265</v>
+        <v>102.60371569</v>
       </c>
       <c r="H46" t="n">
-        <v>104.39287729</v>
+        <v>109.3832952</v>
       </c>
       <c r="I46" t="n">
-        <v>97.54880799</v>
+        <v>114.14055339</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>98.94484180000001</v>
+        <v>105.4408262</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>100.02272763</v>
+        <v>101.04684654</v>
       </c>
       <c r="E47" t="n">
-        <v>96.98743714</v>
+        <v>104.31982273</v>
       </c>
       <c r="F47" t="n">
-        <v>95.94122657</v>
+        <v>100.78288997</v>
       </c>
       <c r="G47" t="n">
-        <v>98.89566067</v>
+        <v>103.78629523</v>
       </c>
       <c r="H47" t="n">
-        <v>106.20431964</v>
+        <v>110.10530758</v>
       </c>
       <c r="I47" t="n">
-        <v>93.85280542</v>
+        <v>115.02328864</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.96172802</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>100.02833956</v>
+        <v>101.3</v>
       </c>
       <c r="E48" t="n">
-        <v>98.64696898</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>98.68127341</v>
+        <v>92.8</v>
       </c>
       <c r="G48" t="n">
-        <v>100.63659644</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>102.00887268</v>
+        <v>99</v>
       </c>
       <c r="I48" t="n">
-        <v>112.41457935</v>
+        <v>93.59999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>102.95944392</v>
+        <v>100.2</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>100.90957437</v>
+        <v>100.6</v>
       </c>
       <c r="E49" t="n">
-        <v>101.40469305</v>
+        <v>100.5</v>
       </c>
       <c r="F49" t="n">
-        <v>102.5095105</v>
+        <v>97.8</v>
       </c>
       <c r="G49" t="n">
-        <v>102.60371569</v>
+        <v>99.5</v>
       </c>
       <c r="H49" t="n">
-        <v>109.3832952</v>
+        <v>103.7</v>
       </c>
       <c r="I49" t="n">
-        <v>114.14055339</v>
+        <v>89.40000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>105.4408262</v>
+        <v>101.5</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>101.04684654</v>
+        <v>100.4</v>
       </c>
       <c r="E50" t="n">
-        <v>104.31982273</v>
+        <v>101.6</v>
       </c>
       <c r="F50" t="n">
-        <v>100.78288997</v>
+        <v>104.8</v>
       </c>
       <c r="G50" t="n">
-        <v>103.78629523</v>
+        <v>99.8</v>
       </c>
       <c r="H50" t="n">
-        <v>110.10530758</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I50" t="n">
-        <v>115.02328864</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>97.09999999999999</v>
+        <v>102.4</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>101.3</v>
+        <v>100.3</v>
       </c>
       <c r="E51" t="n">
-        <v>98.59999999999999</v>
+        <v>106.5</v>
       </c>
       <c r="F51" t="n">
-        <v>92.8</v>
+        <v>103.8</v>
       </c>
       <c r="G51" t="n">
-        <v>98.90000000000001</v>
+        <v>101.2</v>
       </c>
       <c r="H51" t="n">
-        <v>99</v>
+        <v>88.2</v>
       </c>
       <c r="I51" t="n">
-        <v>93.59999999999999</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100.2</v>
+        <v>102.33061738</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>100.6</v>
+        <v>100.40546878</v>
       </c>
       <c r="E52" t="n">
-        <v>100.5</v>
+        <v>104.71345912</v>
       </c>
       <c r="F52" t="n">
-        <v>97.8</v>
+        <v>101.17060564</v>
       </c>
       <c r="G52" t="n">
-        <v>99.5</v>
+        <v>101.24780921</v>
       </c>
       <c r="H52" t="n">
-        <v>103.7</v>
+        <v>89.18796587999999</v>
       </c>
       <c r="I52" t="n">
-        <v>89.40000000000001</v>
+        <v>103.04490153</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>101.5</v>
+        <v>100.30343507</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>100.4</v>
+        <v>100.31529518</v>
       </c>
       <c r="E53" t="n">
-        <v>101.6</v>
+        <v>101.46732954</v>
       </c>
       <c r="F53" t="n">
-        <v>104.8</v>
+        <v>104.06244997</v>
       </c>
       <c r="G53" t="n">
-        <v>99.8</v>
+        <v>100.68749919</v>
       </c>
       <c r="H53" t="n">
-        <v>96.59999999999999</v>
+        <v>96.07964592</v>
       </c>
       <c r="I53" t="n">
-        <v>90.2</v>
+        <v>99.59117243999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>102.4</v>
+        <v>99.95283818999999</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>100.3</v>
+        <v>100.37392082</v>
       </c>
       <c r="E54" t="n">
-        <v>106.5</v>
+        <v>101.06125551</v>
       </c>
       <c r="F54" t="n">
-        <v>103.8</v>
+        <v>102.64728594</v>
       </c>
       <c r="G54" t="n">
-        <v>101.2</v>
+        <v>101.25636454</v>
       </c>
       <c r="H54" t="n">
-        <v>88.2</v>
+        <v>103.2627587</v>
       </c>
       <c r="I54" t="n">
-        <v>97.7</v>
+        <v>106.61462243</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>102.33061738</v>
+        <v>98.19173057</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>100.40546878</v>
+        <v>100.31478096</v>
       </c>
       <c r="E55" t="n">
-        <v>104.71345912</v>
+        <v>98.95522136</v>
       </c>
       <c r="F55" t="n">
-        <v>101.17060564</v>
+        <v>96.21716089</v>
       </c>
       <c r="G55" t="n">
-        <v>101.24780921</v>
+        <v>99.62899265</v>
       </c>
       <c r="H55" t="n">
-        <v>89.18796587999999</v>
+        <v>104.39287729</v>
       </c>
       <c r="I55" t="n">
-        <v>103.04490153</v>
+        <v>97.54880799</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>100.30343507</v>
+        <v>98.94484180000001</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>100.31529518</v>
+        <v>100.02272763</v>
       </c>
       <c r="E56" t="n">
-        <v>101.46732954</v>
+        <v>96.98743714</v>
       </c>
       <c r="F56" t="n">
-        <v>104.06244997</v>
+        <v>95.94122657</v>
       </c>
       <c r="G56" t="n">
-        <v>100.68749919</v>
+        <v>98.89566067</v>
       </c>
       <c r="H56" t="n">
-        <v>96.07964592</v>
+        <v>106.20431964</v>
       </c>
       <c r="I56" t="n">
-        <v>99.59117243999999</v>
+        <v>93.85280542</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.95283818999999</v>
+        <v>99.96172802</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>100.37392082</v>
+        <v>100.02833956</v>
       </c>
       <c r="E57" t="n">
-        <v>101.06125551</v>
+        <v>98.64696898</v>
       </c>
       <c r="F57" t="n">
-        <v>102.64728594</v>
+        <v>98.68127341</v>
       </c>
       <c r="G57" t="n">
-        <v>101.25636454</v>
+        <v>100.63659644</v>
       </c>
       <c r="H57" t="n">
-        <v>103.2627587</v>
+        <v>102.00887268</v>
       </c>
       <c r="I57" t="n">
-        <v>106.61462243</v>
+        <v>112.41457935</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>98.72377007999999</v>
+        <v>105.8046894</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>100.32851082</v>
+        <v>100.40446718</v>
       </c>
       <c r="E58" t="n">
-        <v>100.79375444</v>
+        <v>103.23449273</v>
       </c>
       <c r="F58" t="n">
-        <v>96.19490519999999</v>
+        <v>99.16840833000001</v>
       </c>
       <c r="G58" t="n">
-        <v>99.21767719</v>
+        <v>104.03737032</v>
       </c>
       <c r="H58" t="n">
-        <v>100.92944424</v>
+        <v>106.95307658</v>
       </c>
       <c r="I58" t="n">
-        <v>87.93968982</v>
+        <v>128.03490065</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>99.2251449</v>
+        <v>100.68751626</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>100.26585838</v>
+        <v>100.40322016</v>
       </c>
       <c r="E59" t="n">
-        <v>100.32523912</v>
+        <v>98.9157694</v>
       </c>
       <c r="F59" t="n">
-        <v>99.68455895</v>
+        <v>92.23843834</v>
       </c>
       <c r="G59" t="n">
-        <v>100.30182125</v>
+        <v>99.70122177</v>
       </c>
       <c r="H59" t="n">
-        <v>99.27088291</v>
+        <v>100.45138223</v>
       </c>
       <c r="I59" t="n">
-        <v>102.58575381</v>
+        <v>99.71537771</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>101.38481207</v>
+        <v>100.81555354</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>100.37780955</v>
+        <v>100.03142694</v>
       </c>
       <c r="E60" t="n">
-        <v>102.54696829</v>
+        <v>97.45579769</v>
       </c>
       <c r="F60" t="n">
-        <v>103.45346756</v>
+        <v>97.29145982</v>
       </c>
       <c r="G60" t="n">
-        <v>102.43369597</v>
+        <v>99.86801935</v>
       </c>
       <c r="H60" t="n">
-        <v>101.27852257</v>
+        <v>99.02877780999999</v>
       </c>
       <c r="I60" t="n">
-        <v>117.79532846</v>
+        <v>105.65888555</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>105.8046894</v>
+        <v>101.41571918</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>100.40446718</v>
+        <v>100.12025073</v>
       </c>
       <c r="E61" t="n">
-        <v>103.23449273</v>
+        <v>97.31329838000001</v>
       </c>
       <c r="F61" t="n">
-        <v>99.16840833000001</v>
+        <v>98.42770168</v>
       </c>
       <c r="G61" t="n">
-        <v>104.03737032</v>
+        <v>99.04269021</v>
       </c>
       <c r="H61" t="n">
-        <v>106.95307658</v>
+        <v>99.78500395</v>
       </c>
       <c r="I61" t="n">
-        <v>128.03490065</v>
+        <v>95.43640535999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100.68751626</v>
+        <v>101.14486437</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>100.40322016</v>
+        <v>100.15918101</v>
       </c>
       <c r="E62" t="n">
-        <v>98.9157694</v>
+        <v>98.07362245</v>
       </c>
       <c r="F62" t="n">
-        <v>92.23843834</v>
+        <v>100.1075045</v>
       </c>
       <c r="G62" t="n">
-        <v>99.70122177</v>
+        <v>99.07031379</v>
       </c>
       <c r="H62" t="n">
-        <v>100.45138223</v>
+        <v>99.45075931</v>
       </c>
       <c r="I62" t="n">
-        <v>99.71537771</v>
+        <v>92.84295665</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100.81555354</v>
+        <v>100.882053</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>100.03142694</v>
+        <v>100.15645838</v>
       </c>
       <c r="E63" t="n">
-        <v>97.45579769</v>
+        <v>99.01644443000001</v>
       </c>
       <c r="F63" t="n">
-        <v>97.29145982</v>
+        <v>111.36882532</v>
       </c>
       <c r="G63" t="n">
-        <v>99.86801935</v>
+        <v>98.66460425</v>
       </c>
       <c r="H63" t="n">
-        <v>99.02877780999999</v>
+        <v>95.16221602</v>
       </c>
       <c r="I63" t="n">
-        <v>105.65888555</v>
+        <v>84.60238074999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>101.41571918</v>
+        <v>100.02183878</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>100.12025073</v>
+        <v>100.27212342</v>
       </c>
       <c r="E64" t="n">
-        <v>97.31329838000001</v>
+        <v>99.84264711</v>
       </c>
       <c r="F64" t="n">
-        <v>98.42770168</v>
+        <v>98.32375544</v>
       </c>
       <c r="G64" t="n">
-        <v>99.04269021</v>
+        <v>99.74860381000001</v>
       </c>
       <c r="H64" t="n">
-        <v>99.78500395</v>
+        <v>95.32308533</v>
       </c>
       <c r="I64" t="n">
-        <v>95.43640535999999</v>
+        <v>99.40596128</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>101.14486437</v>
+        <v>98.79600084</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>100.15918101</v>
+        <v>100.58710867</v>
       </c>
       <c r="E65" t="n">
-        <v>98.07362245</v>
+        <v>101.44598404</v>
       </c>
       <c r="F65" t="n">
-        <v>100.1075045</v>
+        <v>107.79615274</v>
       </c>
       <c r="G65" t="n">
-        <v>99.07031379</v>
+        <v>101.68852228</v>
       </c>
       <c r="H65" t="n">
-        <v>99.45075931</v>
+        <v>97.97465606999999</v>
       </c>
       <c r="I65" t="n">
-        <v>92.84295665</v>
+        <v>113.94172357</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>100.882053</v>
+        <v>99.00543587</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>100.15645838</v>
+        <v>101.00775861</v>
       </c>
       <c r="E66" t="n">
-        <v>99.01644443000001</v>
+        <v>101.87987385</v>
       </c>
       <c r="F66" t="n">
-        <v>111.36882532</v>
+        <v>105.82263487</v>
       </c>
       <c r="G66" t="n">
-        <v>98.66460425</v>
+        <v>100.54634432</v>
       </c>
       <c r="H66" t="n">
-        <v>95.16221602</v>
+        <v>100.61767131</v>
       </c>
       <c r="I66" t="n">
-        <v>84.60238074999999</v>
+        <v>95.79274407</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>100.02183878</v>
+        <v>98.72377007999999</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>100.27212342</v>
+        <v>100.32851082</v>
       </c>
       <c r="E67" t="n">
-        <v>99.84264711</v>
+        <v>100.79375444</v>
       </c>
       <c r="F67" t="n">
-        <v>98.32375544</v>
+        <v>96.19490519999999</v>
       </c>
       <c r="G67" t="n">
-        <v>99.74860381000001</v>
+        <v>99.21767719</v>
       </c>
       <c r="H67" t="n">
-        <v>95.32308533</v>
+        <v>100.92944424</v>
       </c>
       <c r="I67" t="n">
-        <v>99.40596128</v>
+        <v>87.93968982</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>98.79600084</v>
+        <v>99.2251449</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>100.58710867</v>
+        <v>100.26585838</v>
       </c>
       <c r="E68" t="n">
-        <v>101.44598404</v>
+        <v>100.32523912</v>
       </c>
       <c r="F68" t="n">
-        <v>107.79615274</v>
+        <v>99.68455895</v>
       </c>
       <c r="G68" t="n">
-        <v>101.68852228</v>
+        <v>100.30182125</v>
       </c>
       <c r="H68" t="n">
-        <v>97.97465606999999</v>
+        <v>99.27088291</v>
       </c>
       <c r="I68" t="n">
-        <v>113.94172357</v>
+        <v>102.58575381</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>99.00543587</v>
+        <v>101.38481207</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>101.00775861</v>
+        <v>100.37780955</v>
       </c>
       <c r="E69" t="n">
-        <v>101.87987385</v>
+        <v>102.54696829</v>
       </c>
       <c r="F69" t="n">
-        <v>105.82263487</v>
+        <v>103.45346756</v>
       </c>
       <c r="G69" t="n">
-        <v>100.54634432</v>
+        <v>102.43369597</v>
       </c>
       <c r="H69" t="n">
-        <v>100.61767131</v>
+        <v>101.27852257</v>
       </c>
       <c r="I69" t="n">
-        <v>95.79274407</v>
+        <v>117.79532846</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>98.58857507</v>
+        <v>102.87813555</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>100.29724963</v>
+        <v>101.10823086</v>
       </c>
       <c r="E70" t="n">
-        <v>100.03568595</v>
+        <v>104.02545243</v>
       </c>
       <c r="F70" t="n">
-        <v>94.12663884</v>
+        <v>101.79981765</v>
       </c>
       <c r="G70" t="n">
-        <v>99.4304647</v>
+        <v>103.13085239</v>
       </c>
       <c r="H70" t="n">
-        <v>98.13163521</v>
+        <v>104.7600852</v>
       </c>
       <c r="I70" t="n">
-        <v>96.62424294</v>
+        <v>114.68033707</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>99.5218996</v>
+        <v>105.57886303</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>100.31015269</v>
+        <v>100.68450196</v>
       </c>
       <c r="E71" t="n">
-        <v>99.99890781000001</v>
+        <v>102.327927</v>
       </c>
       <c r="F71" t="n">
-        <v>98.68179915</v>
+        <v>99.59944797</v>
       </c>
       <c r="G71" t="n">
-        <v>99.63126626</v>
+        <v>102.46843529</v>
       </c>
       <c r="H71" t="n">
-        <v>99.73427902</v>
+        <v>110.79787335</v>
       </c>
       <c r="I71" t="n">
-        <v>95.36757835</v>
+        <v>106.30301661</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>100.71964323</v>
+        <v>95.13328085000001</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>100.16344926</v>
+        <v>100.19430736</v>
       </c>
       <c r="E72" t="n">
-        <v>100.49714937</v>
+        <v>94.98651595</v>
       </c>
       <c r="F72" t="n">
-        <v>101.03406382</v>
+        <v>92.31204442000001</v>
       </c>
       <c r="G72" t="n">
-        <v>100.55581083</v>
+        <v>96.98791782000001</v>
       </c>
       <c r="H72" t="n">
-        <v>104.72903922</v>
+        <v>100.83935323</v>
       </c>
       <c r="I72" t="n">
-        <v>98.99667683</v>
+        <v>86.79632549999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>102.87813555</v>
+        <v>101.12195207</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>101.10823086</v>
+        <v>100.19184454</v>
       </c>
       <c r="E73" t="n">
-        <v>104.02545243</v>
+        <v>95.46300182</v>
       </c>
       <c r="F73" t="n">
-        <v>101.79981765</v>
+        <v>96.51609849</v>
       </c>
       <c r="G73" t="n">
-        <v>103.13085239</v>
+        <v>100.01704162</v>
       </c>
       <c r="H73" t="n">
-        <v>104.7600852</v>
+        <v>100.42998027</v>
       </c>
       <c r="I73" t="n">
-        <v>114.68033707</v>
+        <v>111.51010905</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>105.57886303</v>
+        <v>100.41118658</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>100.68450196</v>
+        <v>100.09367298</v>
       </c>
       <c r="E74" t="n">
-        <v>102.327927</v>
+        <v>98.0879321</v>
       </c>
       <c r="F74" t="n">
-        <v>99.59944797</v>
+        <v>99.60104446</v>
       </c>
       <c r="G74" t="n">
-        <v>102.46843529</v>
+        <v>98.48359357</v>
       </c>
       <c r="H74" t="n">
-        <v>110.79787335</v>
+        <v>101.51507548</v>
       </c>
       <c r="I74" t="n">
-        <v>106.30301661</v>
+        <v>87.54777563</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>95.13328085000001</v>
+        <v>100.45729525</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>100.19430736</v>
+        <v>99.95909768</v>
       </c>
       <c r="E75" t="n">
-        <v>94.98651595</v>
+        <v>102.88184822</v>
       </c>
       <c r="F75" t="n">
-        <v>92.31204442000001</v>
+        <v>100.37195335</v>
       </c>
       <c r="G75" t="n">
-        <v>96.98791782000001</v>
+        <v>100.12827488</v>
       </c>
       <c r="H75" t="n">
-        <v>100.83935323</v>
+        <v>99.27793567000001</v>
       </c>
       <c r="I75" t="n">
-        <v>86.79632549999999</v>
+        <v>93.80106517999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>101.12195207</v>
+        <v>99.98718841</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>100.19184454</v>
+        <v>100.23400209</v>
       </c>
       <c r="E76" t="n">
-        <v>95.46300182</v>
+        <v>101.02841766</v>
       </c>
       <c r="F76" t="n">
-        <v>96.51609849</v>
+        <v>98.61603692</v>
       </c>
       <c r="G76" t="n">
-        <v>100.01704162</v>
+        <v>99.96658370999999</v>
       </c>
       <c r="H76" t="n">
-        <v>100.42998027</v>
+        <v>93.37446973</v>
       </c>
       <c r="I76" t="n">
-        <v>111.51010905</v>
+        <v>101.30125085</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>100.41118658</v>
+        <v>100.33369516</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>100.09367298</v>
+        <v>100.35861204</v>
       </c>
       <c r="E77" t="n">
-        <v>98.0879321</v>
+        <v>102.95744744</v>
       </c>
       <c r="F77" t="n">
-        <v>99.60104446</v>
+        <v>107.21715562</v>
       </c>
       <c r="G77" t="n">
-        <v>98.48359357</v>
+        <v>101.64020709</v>
       </c>
       <c r="H77" t="n">
-        <v>101.51507548</v>
+        <v>97.33229095</v>
       </c>
       <c r="I77" t="n">
-        <v>87.54777563</v>
+        <v>108.74556487</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>100.45729525</v>
+        <v>100.38666375</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>99.95909768</v>
+        <v>100.34840739</v>
       </c>
       <c r="E78" t="n">
-        <v>102.88184822</v>
+        <v>101.78605309</v>
       </c>
       <c r="F78" t="n">
-        <v>100.37195335</v>
+        <v>106.99499487</v>
       </c>
       <c r="G78" t="n">
-        <v>100.12827488</v>
+        <v>101.67138916</v>
       </c>
       <c r="H78" t="n">
-        <v>99.27793567000001</v>
+        <v>105.1235869</v>
       </c>
       <c r="I78" t="n">
-        <v>93.80106517999999</v>
+        <v>107.07705193</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>99.98718841</v>
+        <v>98.58857507</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>100.23400209</v>
+        <v>100.29724963</v>
       </c>
       <c r="E79" t="n">
-        <v>101.02841766</v>
+        <v>100.03568595</v>
       </c>
       <c r="F79" t="n">
-        <v>98.61603692</v>
+        <v>94.12663884</v>
       </c>
       <c r="G79" t="n">
-        <v>99.96658370999999</v>
+        <v>99.4304647</v>
       </c>
       <c r="H79" t="n">
-        <v>93.37446973</v>
+        <v>98.13163521</v>
       </c>
       <c r="I79" t="n">
-        <v>101.30125085</v>
+        <v>96.62424294</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>100.33369516</v>
+        <v>99.5218996</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>100.35861204</v>
+        <v>100.31015269</v>
       </c>
       <c r="E80" t="n">
-        <v>102.95744744</v>
+        <v>99.99890781000001</v>
       </c>
       <c r="F80" t="n">
-        <v>107.21715562</v>
+        <v>98.68179915</v>
       </c>
       <c r="G80" t="n">
-        <v>101.64020709</v>
+        <v>99.63126626</v>
       </c>
       <c r="H80" t="n">
-        <v>97.33229095</v>
+        <v>99.73427902</v>
       </c>
       <c r="I80" t="n">
-        <v>108.74556487</v>
+        <v>95.36757835</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>100.38666375</v>
+        <v>100.71964323</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>100.34840739</v>
+        <v>100.16344926</v>
       </c>
       <c r="E81" t="n">
-        <v>101.78605309</v>
+        <v>100.49714937</v>
       </c>
       <c r="F81" t="n">
-        <v>106.99499487</v>
+        <v>101.03406382</v>
       </c>
       <c r="G81" t="n">
-        <v>101.67138916</v>
+        <v>100.55581083</v>
       </c>
       <c r="H81" t="n">
-        <v>105.1235869</v>
+        <v>104.72903922</v>
       </c>
       <c r="I81" t="n">
-        <v>107.07705193</v>
+        <v>98.99667683</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>98.96537254</v>
+        <v>103.44129179</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>100.14111817</v>
+        <v>100.26858322</v>
       </c>
       <c r="E82" t="n">
-        <v>99.95266101999999</v>
+        <v>99.8555168</v>
       </c>
       <c r="F82" t="n">
-        <v>96.81607520999999</v>
+        <v>102.03934393</v>
       </c>
       <c r="G82" t="n">
-        <v>99.64620733</v>
+        <v>102.12994925</v>
       </c>
       <c r="H82" t="n">
-        <v>96.67751875</v>
+        <v>110.40022108</v>
       </c>
       <c r="I82" t="n">
-        <v>99.72966363</v>
+        <v>112.40128099</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>99.19515336000001</v>
+        <v>103.89606937</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>100.05521088</v>
+        <v>100.26227142</v>
       </c>
       <c r="E83" t="n">
-        <v>99.40641762</v>
+        <v>98.57193927</v>
       </c>
       <c r="F83" t="n">
-        <v>98.86693941999999</v>
+        <v>96.88048468</v>
       </c>
       <c r="G83" t="n">
-        <v>99.53329499</v>
+        <v>101.24472937</v>
       </c>
       <c r="H83" t="n">
-        <v>98.91814969000001</v>
+        <v>108.04578134</v>
       </c>
       <c r="I83" t="n">
-        <v>97.81298497</v>
+        <v>107.7005514</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>100.77586551</v>
+        <v>97.52628373</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>100.06450056</v>
+        <v>100.29164945</v>
       </c>
       <c r="E84" t="n">
-        <v>99.69512159</v>
+        <v>95.96355672</v>
       </c>
       <c r="F84" t="n">
-        <v>98.62698399</v>
+        <v>98.63415311</v>
       </c>
       <c r="G84" t="n">
-        <v>101.01785004</v>
+        <v>98.22689076</v>
       </c>
       <c r="H84" t="n">
-        <v>102.58989872</v>
+        <v>98.70307323999999</v>
       </c>
       <c r="I84" t="n">
-        <v>110.94054546</v>
+        <v>94.73725089</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>103.44129179</v>
+        <v>99.5076303</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>100.26858322</v>
+        <v>100.28206452</v>
       </c>
       <c r="E85" t="n">
-        <v>99.8555168</v>
+        <v>96.89766277</v>
       </c>
       <c r="F85" t="n">
-        <v>102.03934393</v>
+        <v>103.57157588</v>
       </c>
       <c r="G85" t="n">
-        <v>102.12994925</v>
+        <v>98.67502591</v>
       </c>
       <c r="H85" t="n">
-        <v>110.40022108</v>
+        <v>101.56498109</v>
       </c>
       <c r="I85" t="n">
-        <v>112.40128099</v>
+        <v>91.71476226999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>103.89606937</v>
+        <v>100.05561796</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>100.26227142</v>
+        <v>100.19120633</v>
       </c>
       <c r="E86" t="n">
-        <v>98.57193927</v>
+        <v>102.85129205</v>
       </c>
       <c r="F86" t="n">
-        <v>96.88048468</v>
+        <v>109.51269926</v>
       </c>
       <c r="G86" t="n">
-        <v>101.24472937</v>
+        <v>100.3910404</v>
       </c>
       <c r="H86" t="n">
-        <v>108.04578134</v>
+        <v>102.48370411</v>
       </c>
       <c r="I86" t="n">
-        <v>107.7005514</v>
+        <v>91.47352544</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>97.52628373</v>
+        <v>100.06415682</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>100.29164945</v>
+        <v>100.34770855</v>
       </c>
       <c r="E87" t="n">
-        <v>95.96355672</v>
+        <v>101.49103087</v>
       </c>
       <c r="F87" t="n">
-        <v>98.63415311</v>
+        <v>96.79056862</v>
       </c>
       <c r="G87" t="n">
-        <v>98.22689076</v>
+        <v>99.75035407</v>
       </c>
       <c r="H87" t="n">
-        <v>98.70307323999999</v>
+        <v>98.57283323</v>
       </c>
       <c r="I87" t="n">
-        <v>94.73725089</v>
+        <v>94.81041499</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>99.5076303</v>
+        <v>100.20674353</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>100.28206452</v>
+        <v>100.20110091</v>
       </c>
       <c r="E88" t="n">
-        <v>96.89766277</v>
+        <v>100.21393134</v>
       </c>
       <c r="F88" t="n">
-        <v>103.57157588</v>
+        <v>104.15297898</v>
       </c>
       <c r="G88" t="n">
-        <v>98.67502591</v>
+        <v>100.03413442</v>
       </c>
       <c r="H88" t="n">
-        <v>101.56498109</v>
+        <v>93.90460994</v>
       </c>
       <c r="I88" t="n">
-        <v>91.71476226999999</v>
+        <v>102.52021777</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>100.05561796</v>
+        <v>99.83909934</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>100.19120633</v>
+        <v>100.30841087</v>
       </c>
       <c r="E89" t="n">
-        <v>102.85129205</v>
+        <v>102.87340531</v>
       </c>
       <c r="F89" t="n">
-        <v>109.51269926</v>
+        <v>106.28347805</v>
       </c>
       <c r="G89" t="n">
-        <v>100.3910404</v>
+        <v>101.02771236</v>
       </c>
       <c r="H89" t="n">
-        <v>102.48370411</v>
+        <v>98.31407142</v>
       </c>
       <c r="I89" t="n">
-        <v>91.47352544</v>
+        <v>102.24533431</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>100.06415682</v>
+        <v>99.49745845</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>100.34770855</v>
+        <v>100.35831681</v>
       </c>
       <c r="E90" t="n">
-        <v>101.49103087</v>
+        <v>101.61398708</v>
       </c>
       <c r="F90" t="n">
-        <v>96.79056862</v>
+        <v>101.65369468</v>
       </c>
       <c r="G90" t="n">
-        <v>99.75035407</v>
+        <v>100.84056147</v>
       </c>
       <c r="H90" t="n">
-        <v>98.57283323</v>
+        <v>101.06452103</v>
       </c>
       <c r="I90" t="n">
-        <v>94.81041499</v>
+        <v>103.23088238</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>100.20674353</v>
+        <v>98.96537254</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>100.20110091</v>
+        <v>100.14111817</v>
       </c>
       <c r="E91" t="n">
-        <v>100.21393134</v>
+        <v>99.95266101999999</v>
       </c>
       <c r="F91" t="n">
-        <v>104.15297898</v>
+        <v>96.81607520999999</v>
       </c>
       <c r="G91" t="n">
-        <v>100.03413442</v>
+        <v>99.64620733</v>
       </c>
       <c r="H91" t="n">
-        <v>93.90460994</v>
+        <v>96.67751875</v>
       </c>
       <c r="I91" t="n">
-        <v>102.52021777</v>
+        <v>99.72966363</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>99.83909934</v>
+        <v>99.19515336000001</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>100.30841087</v>
+        <v>100.05521088</v>
       </c>
       <c r="E92" t="n">
-        <v>102.87340531</v>
+        <v>99.40641762</v>
       </c>
       <c r="F92" t="n">
-        <v>106.28347805</v>
+        <v>98.86693941999999</v>
       </c>
       <c r="G92" t="n">
-        <v>101.02771236</v>
+        <v>99.53329499</v>
       </c>
       <c r="H92" t="n">
-        <v>98.31407142</v>
+        <v>98.91814969000001</v>
       </c>
       <c r="I92" t="n">
-        <v>102.24533431</v>
+        <v>97.81298497</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>99.49745845</v>
+        <v>100.77586551</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>100.35831681</v>
+        <v>100.06450056</v>
       </c>
       <c r="E93" t="n">
-        <v>101.61398708</v>
+        <v>99.69512159</v>
       </c>
       <c r="F93" t="n">
-        <v>101.65369468</v>
+        <v>98.62698399</v>
       </c>
       <c r="G93" t="n">
-        <v>100.84056147</v>
+        <v>101.01785004</v>
       </c>
       <c r="H93" t="n">
-        <v>101.06452103</v>
+        <v>102.58989872</v>
       </c>
       <c r="I93" t="n">
-        <v>103.23088238</v>
+        <v>110.94054546</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>98.92066397000001</v>
+        <v>100.85300615</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>100.05794131</v>
+        <v>100.01495721</v>
       </c>
       <c r="E94" t="n">
-        <v>99.03327298000001</v>
+        <v>99.43700642</v>
       </c>
       <c r="F94" t="n">
-        <v>93.20808009</v>
+        <v>96.77613045</v>
       </c>
       <c r="G94" t="n">
-        <v>98.93892707000001</v>
+        <v>100.55401686</v>
       </c>
       <c r="H94" t="n">
-        <v>98.3821476</v>
+        <v>104.16509608</v>
       </c>
       <c r="I94" t="n">
-        <v>94.50881136</v>
+        <v>104.47118358</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>98.91284</v>
+        <v>105.6347149</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>99.85876621</v>
+        <v>100.24073038</v>
       </c>
       <c r="E95" t="n">
-        <v>98.27574604</v>
+        <v>100.90230726</v>
       </c>
       <c r="F95" t="n">
-        <v>99.04174528</v>
+        <v>100.14575709</v>
       </c>
       <c r="G95" t="n">
-        <v>99.69291463</v>
+        <v>102.6037959</v>
       </c>
       <c r="H95" t="n">
-        <v>100.75692343</v>
+        <v>109.43233351</v>
       </c>
       <c r="I95" t="n">
-        <v>102.03893536</v>
+        <v>113.10923869</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>100.47483849</v>
+        <v>98.05742945</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>100.08022202</v>
+        <v>100.15139249</v>
       </c>
       <c r="E96" t="n">
-        <v>99.6880848</v>
+        <v>98.21417895</v>
       </c>
       <c r="F96" t="n">
-        <v>101.66323917</v>
+        <v>93.89152061</v>
       </c>
       <c r="G96" t="n">
-        <v>101.40599826</v>
+        <v>98.50345495000001</v>
       </c>
       <c r="H96" t="n">
-        <v>102.99591374</v>
+        <v>100.80312552</v>
       </c>
       <c r="I96" t="n">
-        <v>113.99272839</v>
+        <v>91.61214339999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>100.85300615</v>
+        <v>98.98337023000001</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>100.01495721</v>
+        <v>100.15111859</v>
       </c>
       <c r="E97" t="n">
-        <v>99.43700642</v>
+        <v>99.03402325</v>
       </c>
       <c r="F97" t="n">
-        <v>96.77613045</v>
+        <v>94.14341191</v>
       </c>
       <c r="G97" t="n">
-        <v>100.55401686</v>
+        <v>99.09639004</v>
       </c>
       <c r="H97" t="n">
-        <v>104.16509608</v>
+        <v>96.21645214</v>
       </c>
       <c r="I97" t="n">
-        <v>104.47118358</v>
+        <v>97.93689543000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>105.6347149</v>
+        <v>100.02963269</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>100.24073038</v>
+        <v>100.05354259</v>
       </c>
       <c r="E98" t="n">
-        <v>100.90230726</v>
+        <v>100.91609812</v>
       </c>
       <c r="F98" t="n">
-        <v>100.14575709</v>
+        <v>98.45097161</v>
       </c>
       <c r="G98" t="n">
-        <v>102.6037959</v>
+        <v>99.17405742</v>
       </c>
       <c r="H98" t="n">
-        <v>109.43233351</v>
+        <v>97.33930561</v>
       </c>
       <c r="I98" t="n">
-        <v>113.10923869</v>
+        <v>90.67315335000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>98.05742945</v>
+        <v>100.67955011</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>100.15139249</v>
+        <v>99.97887731</v>
       </c>
       <c r="E99" t="n">
-        <v>98.21417895</v>
+        <v>101.67734854</v>
       </c>
       <c r="F99" t="n">
-        <v>93.89152061</v>
+        <v>98.20445135</v>
       </c>
       <c r="G99" t="n">
-        <v>98.50345495000001</v>
+        <v>99.97489976</v>
       </c>
       <c r="H99" t="n">
-        <v>100.80312552</v>
+        <v>94.20026477</v>
       </c>
       <c r="I99" t="n">
-        <v>91.61214339999999</v>
+        <v>99.13700262</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>98.98337023000001</v>
+        <v>100.38988129</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>100.15111859</v>
+        <v>100.07153319</v>
       </c>
       <c r="E100" t="n">
-        <v>99.03402325</v>
+        <v>104.69618387</v>
       </c>
       <c r="F100" t="n">
-        <v>94.14341191</v>
+        <v>101.23005833</v>
       </c>
       <c r="G100" t="n">
-        <v>99.09639004</v>
+        <v>100.95455817</v>
       </c>
       <c r="H100" t="n">
-        <v>96.21645214</v>
+        <v>93.74882886</v>
       </c>
       <c r="I100" t="n">
-        <v>97.93689543000001</v>
+        <v>100.93538801</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>100.02963269</v>
+        <v>99.96055237</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>100.05354259</v>
+        <v>100.09401492</v>
       </c>
       <c r="E101" t="n">
-        <v>100.91609812</v>
+        <v>104.52565062</v>
       </c>
       <c r="F101" t="n">
-        <v>98.45097161</v>
+        <v>109.91910701</v>
       </c>
       <c r="G101" t="n">
-        <v>99.17405742</v>
+        <v>101.9894862</v>
       </c>
       <c r="H101" t="n">
-        <v>97.33930561</v>
+        <v>98.01262312</v>
       </c>
       <c r="I101" t="n">
-        <v>90.67315335000001</v>
+        <v>107.20867108</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>100.67955011</v>
+        <v>99.1925202</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>99.97887731</v>
+        <v>100.00187757</v>
       </c>
       <c r="E102" t="n">
-        <v>101.67734854</v>
+        <v>100.44210175</v>
       </c>
       <c r="F102" t="n">
-        <v>98.20445135</v>
+        <v>102.80740548</v>
       </c>
       <c r="G102" t="n">
-        <v>99.97489976</v>
+        <v>99.89174558000001</v>
       </c>
       <c r="H102" t="n">
-        <v>94.20026477</v>
+        <v>97.88538034</v>
       </c>
       <c r="I102" t="n">
-        <v>99.13700262</v>
+        <v>98.12281138</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>100.38988129</v>
+        <v>98.92066397000001</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>100.07153319</v>
+        <v>100.05794131</v>
       </c>
       <c r="E103" t="n">
-        <v>104.69618387</v>
+        <v>99.03327298000001</v>
       </c>
       <c r="F103" t="n">
-        <v>101.23005833</v>
+        <v>93.20808009</v>
       </c>
       <c r="G103" t="n">
-        <v>100.95455817</v>
+        <v>98.93892707000001</v>
       </c>
       <c r="H103" t="n">
-        <v>93.74882886</v>
+        <v>98.3821476</v>
       </c>
       <c r="I103" t="n">
-        <v>100.93538801</v>
+        <v>94.50881136</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>99.96055237</v>
+        <v>98.91284</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>100.09401492</v>
+        <v>99.85876621</v>
       </c>
       <c r="E104" t="n">
-        <v>104.52565062</v>
+        <v>98.27574604</v>
       </c>
       <c r="F104" t="n">
-        <v>109.91910701</v>
+        <v>99.04174528</v>
       </c>
       <c r="G104" t="n">
-        <v>101.9894862</v>
+        <v>99.69291463</v>
       </c>
       <c r="H104" t="n">
-        <v>98.01262312</v>
+        <v>100.75692343</v>
       </c>
       <c r="I104" t="n">
-        <v>107.20867108</v>
+        <v>102.03893536</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>99.1925202</v>
+        <v>100.47483849</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>100.00187757</v>
+        <v>100.08022202</v>
       </c>
       <c r="E105" t="n">
-        <v>100.44210175</v>
+        <v>99.6880848</v>
       </c>
       <c r="F105" t="n">
-        <v>102.80740548</v>
+        <v>101.66323917</v>
       </c>
       <c r="G105" t="n">
-        <v>99.89174558000001</v>
+        <v>101.40599826</v>
       </c>
       <c r="H105" t="n">
-        <v>97.88538034</v>
+        <v>102.99591374</v>
       </c>
       <c r="I105" t="n">
-        <v>98.12281138</v>
+        <v>113.99272839</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>98.10722411</v>
+        <v>101.05093737</v>
       </c>
       <c r="C106" t="n">
-        <v>98.01516746999999</v>
+        <v>101.61379817</v>
       </c>
       <c r="D106" t="n">
-        <v>100.1361279</v>
+        <v>99.94847842</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>95.54843293</v>
+        <v>103.87712284</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>98.01284305999989</v>
+        <v>104.894775</v>
       </c>
       <c r="I106" t="n">
-        <v>98.77402447999989</v>
+        <v>107.20877902</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>99.03573600999999</v>
+        <v>105.2564476</v>
       </c>
       <c r="C107" t="n">
-        <v>98.40397664</v>
+        <v>105.50620185</v>
       </c>
       <c r="D107" t="n">
-        <v>100.1977386</v>
+        <v>100.29488647</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
-        <v>99.62323677000001</v>
+        <v>100.10958309</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>97.83463012</v>
+        <v>107.1286579</v>
       </c>
       <c r="I107" t="n">
-        <v>104.7232198</v>
+        <v>129.44463465</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>99.83392567999999</v>
+        <v>96.60236904</v>
       </c>
       <c r="C108" t="n">
-        <v>100.0726101</v>
+        <v>98.87708725</v>
       </c>
       <c r="D108" t="n">
-        <v>100.2371246</v>
+        <v>99.90695023000001</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>98.74078292</v>
+        <v>91.6502014</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>102.0058347</v>
+        <v>97.14907095</v>
       </c>
       <c r="I108" t="n">
-        <v>100.7760612</v>
+        <v>95.05617058999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>101.05093737</v>
+        <v>100.43776065</v>
       </c>
       <c r="C109" t="n">
-        <v>101.61379817</v>
+        <v>102.18944497</v>
       </c>
       <c r="D109" t="n">
-        <v>99.94847842</v>
+        <v>100.0072677</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>103.87712284</v>
+        <v>98.66546196</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>104.894775</v>
+        <v>98.08947284</v>
       </c>
       <c r="I109" t="n">
-        <v>107.20877902</v>
+        <v>89.02991355</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>105.2564476</v>
+        <v>100.82983088</v>
       </c>
       <c r="C110" t="n">
-        <v>105.50620185</v>
+        <v>101.69634256</v>
       </c>
       <c r="D110" t="n">
-        <v>100.29488647</v>
+        <v>100.11984462</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>100.10958309</v>
+        <v>99.55387168</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>107.1286579</v>
+        <v>98.84238911</v>
       </c>
       <c r="I110" t="n">
-        <v>129.44463465</v>
+        <v>78.68335627</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>96.60236904</v>
+        <v>101.72292325</v>
       </c>
       <c r="C111" t="n">
-        <v>98.87708725</v>
+        <v>100.83101359</v>
       </c>
       <c r="D111" t="n">
-        <v>99.90695023000001</v>
+        <v>100.0286754</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>91.6502014</v>
+        <v>99.15226258</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>97.14907095</v>
+        <v>99.04086309</v>
       </c>
       <c r="I111" t="n">
-        <v>95.05617058999999</v>
+        <v>87.3328144</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>100.43776065</v>
+        <v>100.67258262</v>
       </c>
       <c r="C112" t="n">
-        <v>102.18944497</v>
+        <v>98.44418071</v>
       </c>
       <c r="D112" t="n">
-        <v>100.0072677</v>
+        <v>100.0451385</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
-        <v>98.66546196</v>
+        <v>98.51852629</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>98.08947284</v>
+        <v>97.33837908</v>
       </c>
       <c r="I112" t="n">
-        <v>89.02991355</v>
+        <v>102.69389074</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>100.82983088</v>
+        <v>99.51354721</v>
       </c>
       <c r="C113" t="n">
-        <v>101.69634256</v>
+        <v>99.18457634000001</v>
       </c>
       <c r="D113" t="n">
-        <v>100.11984462</v>
+        <v>100.02335384</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>99.55387168</v>
+        <v>103.76709164</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>98.84238911</v>
+        <v>98.19611385</v>
       </c>
       <c r="I113" t="n">
-        <v>78.68335627</v>
+        <v>108.33676795</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>101.72292325</v>
+        <v>99.87130397</v>
       </c>
       <c r="C114" t="n">
-        <v>100.83101359</v>
+        <v>99.89969053</v>
       </c>
       <c r="D114" t="n">
-        <v>100.0286754</v>
+        <v>100.078210299999</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
-        <v>99.15226258</v>
+        <v>106.2139559</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>99.04086309</v>
+        <v>104.927746799999</v>
       </c>
       <c r="I114" t="n">
-        <v>87.3328144</v>
+        <v>111.2738429</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>100.67258262</v>
+        <v>98.10722411</v>
       </c>
       <c r="C115" t="n">
-        <v>98.44418071</v>
+        <v>98.01516746999999</v>
       </c>
       <c r="D115" t="n">
-        <v>100.0451385</v>
+        <v>100.1361279</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
-        <v>98.51852629</v>
+        <v>95.54843293</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>97.33837908</v>
+        <v>98.01284305999989</v>
       </c>
       <c r="I115" t="n">
-        <v>102.69389074</v>
+        <v>98.77402447999989</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>99.51354721</v>
+        <v>99.03573600999999</v>
       </c>
       <c r="C116" t="n">
-        <v>99.18457634000001</v>
+        <v>98.40397664</v>
       </c>
       <c r="D116" t="n">
-        <v>100.02335384</v>
+        <v>100.1977386</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>103.76709164</v>
+        <v>99.62323677000001</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>98.19611385</v>
+        <v>97.83463012</v>
       </c>
       <c r="I116" t="n">
-        <v>108.33676795</v>
+        <v>104.7232198</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>99.87130397</v>
+        <v>99.83392567999999</v>
       </c>
       <c r="C117" t="n">
-        <v>99.89969053</v>
+        <v>100.0726101</v>
       </c>
       <c r="D117" t="n">
-        <v>100.078210299999</v>
+        <v>100.2371246</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>106.2139559</v>
+        <v>98.74078292</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>104.927746799999</v>
+        <v>102.0058347</v>
       </c>
       <c r="I117" t="n">
-        <v>111.2738429</v>
+        <v>100.7760612</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>99.09190515</v>
+        <v>103.5754735</v>
       </c>
       <c r="C118" t="n">
-        <v>100.1661016</v>
+        <v>102.545228</v>
       </c>
       <c r="D118" t="n">
-        <v>100.138114</v>
+        <v>100.3736596</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
-        <v>95.16585511</v>
+        <v>98.26207658</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>99.8625012</v>
+        <v>106.2784483</v>
       </c>
       <c r="I118" t="n">
-        <v>99.93462344</v>
+        <v>106.0917681</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>98.60013881</v>
+        <v>101.26543031</v>
       </c>
       <c r="C119" t="n">
-        <v>99.38668549</v>
+        <v>99.12028721999999</v>
       </c>
       <c r="D119" t="n">
-        <v>99.96891435000001</v>
+        <v>100.23702451</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
-        <v>102.3175008</v>
+        <v>92.98525382</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>101.2238911</v>
+        <v>104.01284075</v>
       </c>
       <c r="I119" t="n">
-        <v>94.84373295</v>
+        <v>95.02229903</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>100.8123559</v>
+        <v>99.05125697</v>
       </c>
       <c r="C120" t="n">
-        <v>100.9165246</v>
+        <v>97.2917674</v>
       </c>
       <c r="D120" t="n">
-        <v>100.0644811</v>
+        <v>100.0576166</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>104.6784469</v>
+        <v>95.92592947</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>105.6549741</v>
+        <v>99.43976547</v>
       </c>
       <c r="I120" t="n">
-        <v>101.4503755</v>
+        <v>92.19595113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>103.5754735</v>
+        <v>101.503924</v>
       </c>
       <c r="C121" t="n">
-        <v>102.545228</v>
+        <v>98.71157999</v>
       </c>
       <c r="D121" t="n">
-        <v>100.3736596</v>
+        <v>100.0233552</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
-        <v>98.26207658</v>
+        <v>98.94939386999999</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>106.2784483</v>
+        <v>101.996785</v>
       </c>
       <c r="I121" t="n">
-        <v>106.0917681</v>
+        <v>95.12649107</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>101.26543031</v>
+        <v>101.2313631</v>
       </c>
       <c r="C122" t="n">
-        <v>99.12028721999999</v>
+        <v>97.75920566000001</v>
       </c>
       <c r="D122" t="n">
-        <v>100.23702451</v>
+        <v>100.1031587</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
-        <v>92.98525382</v>
+        <v>95.49106892</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>104.01284075</v>
+        <v>104.1695104</v>
       </c>
       <c r="I122" t="n">
-        <v>95.02229903</v>
+        <v>93.77858486</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>99.05125697</v>
+        <v>100.4572291</v>
       </c>
       <c r="C123" t="n">
-        <v>97.2917674</v>
+        <v>97.01927379</v>
       </c>
       <c r="D123" t="n">
-        <v>100.0576166</v>
+        <v>100.0706127</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
-        <v>95.92592947</v>
+        <v>105.7880904</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>99.43976547</v>
+        <v>96.02267275</v>
       </c>
       <c r="I123" t="n">
-        <v>92.19595113</v>
+        <v>98.04682314999999</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>101.503924</v>
+        <v>100.1604891</v>
       </c>
       <c r="C124" t="n">
-        <v>98.71157999</v>
+        <v>99.26425888999999</v>
       </c>
       <c r="D124" t="n">
-        <v>100.0233552</v>
+        <v>100.0879275</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>98.94939386999999</v>
+        <v>103.1880053</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>101.996785</v>
+        <v>90.94500192</v>
       </c>
       <c r="I124" t="n">
-        <v>95.12649107</v>
+        <v>106.3932426</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>101.2313631</v>
+        <v>99.35223209999999</v>
       </c>
       <c r="C125" t="n">
-        <v>97.75920566000001</v>
+        <v>101.036923</v>
       </c>
       <c r="D125" t="n">
-        <v>100.1031587</v>
+        <v>100.1115617</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
-        <v>95.49106892</v>
+        <v>115.3584576</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>104.1695104</v>
+        <v>96.56185035</v>
       </c>
       <c r="I125" t="n">
-        <v>93.77858486</v>
+        <v>109.1600327</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>100.4572291</v>
+        <v>98.69695469</v>
       </c>
       <c r="C126" t="n">
-        <v>97.01927379</v>
+        <v>101.0865035</v>
       </c>
       <c r="D126" t="n">
-        <v>100.0706127</v>
+        <v>100.2521736</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="n">
-        <v>105.7880904</v>
+        <v>105.5838817</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>96.02267275</v>
+        <v>100.7641615</v>
       </c>
       <c r="I126" t="n">
-        <v>98.04682314999999</v>
+        <v>100.8704489</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>100.1604891</v>
+        <v>99.09190515</v>
       </c>
       <c r="C127" t="n">
-        <v>99.26425888999999</v>
+        <v>100.1661016</v>
       </c>
       <c r="D127" t="n">
-        <v>100.0879275</v>
+        <v>100.138114</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="n">
-        <v>103.1880053</v>
+        <v>95.16585511</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>90.94500192</v>
+        <v>99.8625012</v>
       </c>
       <c r="I127" t="n">
-        <v>106.3932426</v>
+        <v>99.93462344</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>99.35223209999999</v>
+        <v>98.60013881</v>
       </c>
       <c r="C128" t="n">
-        <v>101.036923</v>
+        <v>99.38668549</v>
       </c>
       <c r="D128" t="n">
-        <v>100.1115617</v>
+        <v>99.96891435000001</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
-        <v>115.3584576</v>
+        <v>102.3175008</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>96.56185035</v>
+        <v>101.2238911</v>
       </c>
       <c r="I128" t="n">
-        <v>109.1600327</v>
+        <v>94.84373295</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>98.69695469</v>
+        <v>100.8123559</v>
       </c>
       <c r="C129" t="n">
-        <v>101.0865035</v>
+        <v>100.9165246</v>
       </c>
       <c r="D129" t="n">
-        <v>100.2521736</v>
+        <v>100.0644811</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
-        <v>105.5838817</v>
+        <v>104.6784469</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>100.7641615</v>
+        <v>105.6549741</v>
       </c>
       <c r="I129" t="n">
-        <v>100.8704489</v>
+        <v>101.4503755</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>98.93379134</v>
+        <v>102.277216</v>
       </c>
       <c r="C130" t="n">
-        <v>100.92954319</v>
+        <v>100.8322036</v>
       </c>
       <c r="D130" t="n">
-        <v>99.99081327</v>
+        <v>100.053097</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
-        <v>96.47583003</v>
+        <v>100.8501982</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>100.9111159</v>
+        <v>105.5051404</v>
       </c>
       <c r="I130" t="n">
-        <v>97.16702056</v>
+        <v>108.8671359</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>99.73278136</v>
+        <v>107.627998</v>
       </c>
       <c r="C131" t="n">
-        <v>99.73652869</v>
+        <v>101.9924525</v>
       </c>
       <c r="D131" t="n">
-        <v>100.06420503</v>
+        <v>100.1492291</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
-        <v>99.63736776</v>
+        <v>100.8563603</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>103.52380913</v>
+        <v>107.8653883</v>
       </c>
       <c r="I131" t="n">
-        <v>88.1126174</v>
+        <v>117.2739361</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>100.62542524</v>
+        <v>96.39072009</v>
       </c>
       <c r="C132" t="n">
-        <v>100.6141437</v>
+        <v>93.94463140000001</v>
       </c>
       <c r="D132" t="n">
-        <v>100.05062244</v>
+        <v>100.0772571</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
-        <v>98.66464628</v>
+        <v>90.90098338999999</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>101.87765953</v>
+        <v>97.45846699000001</v>
       </c>
       <c r="I132" t="n">
-        <v>103.04480954</v>
+        <v>85.15592809</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>102.277216</v>
+        <v>99.31076422</v>
       </c>
       <c r="C133" t="n">
-        <v>100.8322036</v>
+        <v>94.76718723</v>
       </c>
       <c r="D133" t="n">
-        <v>100.053097</v>
+        <v>100.0494958</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="n">
-        <v>100.8501982</v>
+        <v>96.82809983</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>105.5051404</v>
+        <v>98.37730732</v>
       </c>
       <c r="I133" t="n">
-        <v>108.8671359</v>
+        <v>95.31769914</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>107.627998</v>
+        <v>99.30666801</v>
       </c>
       <c r="C134" t="n">
-        <v>101.9924525</v>
+        <v>97.01173111999999</v>
       </c>
       <c r="D134" t="n">
-        <v>100.1492291</v>
+        <v>100.0165196</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
-        <v>100.8563603</v>
+        <v>101.7494673</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>107.8653883</v>
+        <v>97.74382858</v>
       </c>
       <c r="I134" t="n">
-        <v>117.2739361</v>
+        <v>95.32927655</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>96.39072009</v>
+        <v>99.44757573</v>
       </c>
       <c r="C135" t="n">
-        <v>93.94463140000001</v>
+        <v>100.40187041</v>
       </c>
       <c r="D135" t="n">
-        <v>100.0772571</v>
+        <v>99.97189323000001</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
-        <v>90.90098338999999</v>
+        <v>99.81684314</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>97.45846699000001</v>
+        <v>94.65756879</v>
       </c>
       <c r="I135" t="n">
-        <v>85.15592809</v>
+        <v>97.51216717</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>99.31076422</v>
+        <v>99.89124047999999</v>
       </c>
       <c r="C136" t="n">
-        <v>94.76718723</v>
+        <v>102.13667704</v>
       </c>
       <c r="D136" t="n">
-        <v>100.0494958</v>
+        <v>99.91669561</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
-        <v>96.82809983</v>
+        <v>99.90674611</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>98.37730732</v>
+        <v>95.85038486000001</v>
       </c>
       <c r="I136" t="n">
-        <v>95.31769914</v>
+        <v>100.77346034</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>99.30666801</v>
+        <v>99.88304874000001</v>
       </c>
       <c r="C137" t="n">
-        <v>97.01173111999999</v>
+        <v>104.9076008</v>
       </c>
       <c r="D137" t="n">
-        <v>100.0165196</v>
+        <v>99.93717592</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
-        <v>101.7494673</v>
+        <v>112.95344287</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>97.74382858</v>
+        <v>101.72537954</v>
       </c>
       <c r="I137" t="n">
-        <v>95.32927655</v>
+        <v>109.56555501</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>99.44757573</v>
+        <v>99.34644462999999</v>
       </c>
       <c r="C138" t="n">
-        <v>100.40187041</v>
+        <v>103.0701499</v>
       </c>
       <c r="D138" t="n">
-        <v>99.97189323000001</v>
+        <v>100.10987441</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>99.81684314</v>
+        <v>102.61888301</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>94.65756879</v>
+        <v>106.11607271</v>
       </c>
       <c r="I138" t="n">
-        <v>97.51216717</v>
+        <v>109.69117555</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>99.89124047999999</v>
+        <v>98.93379134</v>
       </c>
       <c r="C139" t="n">
-        <v>102.13667704</v>
+        <v>100.92954319</v>
       </c>
       <c r="D139" t="n">
-        <v>99.91669561</v>
+        <v>99.99081327</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
-        <v>99.90674611</v>
+        <v>96.47583003</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>95.85038486000001</v>
+        <v>100.9111159</v>
       </c>
       <c r="I139" t="n">
-        <v>100.77346034</v>
+        <v>97.16702056</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>99.88304874000001</v>
+        <v>99.73278136</v>
       </c>
       <c r="C140" t="n">
-        <v>104.9076008</v>
+        <v>99.73652869</v>
       </c>
       <c r="D140" t="n">
-        <v>99.93717592</v>
+        <v>100.06420503</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
-        <v>112.95344287</v>
+        <v>99.63736776</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>101.72537954</v>
+        <v>103.52380913</v>
       </c>
       <c r="I140" t="n">
-        <v>109.56555501</v>
+        <v>88.1126174</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>99.34644462999999</v>
+        <v>100.62542524</v>
       </c>
       <c r="C141" t="n">
-        <v>103.0701499</v>
+        <v>100.6141437</v>
       </c>
       <c r="D141" t="n">
-        <v>100.10987441</v>
+        <v>100.05062244</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
-        <v>102.61888301</v>
+        <v>98.66464628</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>106.11607271</v>
+        <v>101.87765953</v>
       </c>
       <c r="I141" t="n">
-        <v>109.69117555</v>
+        <v>103.04480954</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>99.13518203</v>
+        <v>101.75606944</v>
       </c>
       <c r="C142" t="n">
-        <v>115.80540495</v>
+        <v>99.98713229000001</v>
       </c>
       <c r="D142" t="n">
-        <v>99.95031447</v>
+        <v>100.0734472</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
-        <v>98.76357004</v>
+        <v>100.74685528</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>94.06850651000001</v>
+        <v>102.73952305</v>
       </c>
       <c r="I142" t="n">
-        <v>98.06854103000001</v>
+        <v>109.1493641</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>99.14989233</v>
+        <v>103.57007646</v>
       </c>
       <c r="C143" t="n">
-        <v>104.59615183</v>
+        <v>100.868341</v>
       </c>
       <c r="D143" t="n">
-        <v>100.21664679</v>
+        <v>100.23891933</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
-        <v>99.07882644</v>
+        <v>94.98344290999999</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>96.74922359999999</v>
+        <v>105.03790686</v>
       </c>
       <c r="I143" t="n">
-        <v>101.46025709</v>
+        <v>114.96683884</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>99.97530064999999</v>
+        <v>96.28825942</v>
       </c>
       <c r="C144" t="n">
-        <v>95.93729449</v>
+        <v>100.26178917</v>
       </c>
       <c r="D144" t="n">
-        <v>100.10992167</v>
+        <v>99.96008887000001</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
-        <v>94.94947620000001</v>
+        <v>94.04402431</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>100.29428066</v>
+        <v>100.11844964</v>
       </c>
       <c r="I144" t="n">
-        <v>109.90143225</v>
+        <v>97.3708834</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>101.75606944</v>
+        <v>100.27445017</v>
       </c>
       <c r="C145" t="n">
-        <v>99.98713229000001</v>
+        <v>101.32767857</v>
       </c>
       <c r="D145" t="n">
-        <v>100.0734472</v>
+        <v>100.00330112</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
-        <v>100.74685528</v>
+        <v>103.0697033</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>102.73952305</v>
+        <v>103.58633832</v>
       </c>
       <c r="I145" t="n">
-        <v>109.1493641</v>
+        <v>97.05205173</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>103.57007646</v>
+        <v>100.1689371</v>
       </c>
       <c r="C146" t="n">
-        <v>100.868341</v>
+        <v>99.53869267</v>
       </c>
       <c r="D146" t="n">
-        <v>100.23891933</v>
+        <v>100.00763127</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
-        <v>94.98344290999999</v>
+        <v>106.97297441</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>105.03790686</v>
+        <v>110.18007292</v>
       </c>
       <c r="I146" t="n">
-        <v>114.96683884</v>
+        <v>92.02421751999999</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>96.28825942</v>
+        <v>99.58479489</v>
       </c>
       <c r="C147" t="n">
-        <v>100.26178917</v>
+        <v>102.06055164</v>
       </c>
       <c r="D147" t="n">
-        <v>99.96008887000001</v>
+        <v>100.07488015</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
-        <v>94.04402431</v>
+        <v>97.62667107999999</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>100.11844964</v>
+        <v>105.74146553</v>
       </c>
       <c r="I147" t="n">
-        <v>97.3708834</v>
+        <v>89.82121976000001</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>100.27445017</v>
+        <v>100.73363741</v>
       </c>
       <c r="C148" t="n">
-        <v>101.32767857</v>
+        <v>105.78593405</v>
       </c>
       <c r="D148" t="n">
-        <v>100.00330112</v>
+        <v>99.98816997</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
-        <v>103.0697033</v>
+        <v>104.83471213</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>103.58633832</v>
+        <v>94.08534054</v>
       </c>
       <c r="I148" t="n">
-        <v>97.05205173</v>
+        <v>101.91743936</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>100.1689371</v>
+        <v>101.28364697</v>
       </c>
       <c r="C149" t="n">
-        <v>99.53869267</v>
+        <v>116.73447706</v>
       </c>
       <c r="D149" t="n">
-        <v>100.00763127</v>
+        <v>99.91070406</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
-        <v>106.97297441</v>
+        <v>105.64006283</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>110.18007292</v>
+        <v>89.92816662</v>
       </c>
       <c r="I149" t="n">
-        <v>92.02421751999999</v>
+        <v>102.38449973</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>99.58479489</v>
+        <v>100.41847821</v>
       </c>
       <c r="C150" t="n">
-        <v>102.06055164</v>
+        <v>116.07504942</v>
       </c>
       <c r="D150" t="n">
-        <v>100.07488015</v>
+        <v>100.10418499</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
-        <v>97.62667107999999</v>
+        <v>107.30797804</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>105.74146553</v>
+        <v>92.03391013</v>
       </c>
       <c r="I150" t="n">
-        <v>89.82121976000001</v>
+        <v>98.80148699999999</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>100.73363741</v>
+        <v>99.13518203</v>
       </c>
       <c r="C151" t="n">
-        <v>105.78593405</v>
+        <v>115.80540495</v>
       </c>
       <c r="D151" t="n">
-        <v>99.98816997</v>
+        <v>99.95031447</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
-        <v>104.83471213</v>
+        <v>98.76357004</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>94.08534054</v>
+        <v>94.06850651000001</v>
       </c>
       <c r="I151" t="n">
-        <v>101.91743936</v>
+        <v>98.06854103000001</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>101.28364697</v>
+        <v>99.14989233</v>
       </c>
       <c r="C152" t="n">
-        <v>116.73447706</v>
+        <v>104.59615183</v>
       </c>
       <c r="D152" t="n">
-        <v>99.91070406</v>
+        <v>100.21664679</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
-        <v>105.64006283</v>
+        <v>99.07882644</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>89.92816662</v>
+        <v>96.74922359999999</v>
       </c>
       <c r="I152" t="n">
-        <v>102.38449973</v>
+        <v>101.46025709</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>100.41847821</v>
+        <v>99.97530064999999</v>
       </c>
       <c r="C153" t="n">
-        <v>116.07504942</v>
+        <v>95.93729449</v>
       </c>
       <c r="D153" t="n">
-        <v>100.10418499</v>
+        <v>100.10992167</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
-        <v>107.30797804</v>
+        <v>94.94947620000001</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>92.03391013</v>
+        <v>100.29428066</v>
       </c>
       <c r="I153" t="n">
-        <v>98.80148699999999</v>
+        <v>109.90143225</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>99.09999999999999</v>
+        <v>103.61236956</v>
       </c>
       <c r="C154" t="n">
-        <v>94.8</v>
+        <v>106.45548789</v>
       </c>
       <c r="D154" t="n">
-        <v>100</v>
+        <v>100.01882989</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
-        <v>98.2</v>
+        <v>96.95587528999999</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>101.8</v>
+        <v>105.38277989</v>
       </c>
       <c r="I154" t="n">
-        <v>98.8</v>
+        <v>114.48731897</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>98.09999999999999</v>
+        <v>102.79414021</v>
       </c>
       <c r="C155" t="n">
-        <v>95</v>
+        <v>106.78937976</v>
       </c>
       <c r="D155" t="n">
-        <v>100.2</v>
+        <v>100.26782952</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
-        <v>98.40000000000001</v>
+        <v>93.24543623</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>99.3</v>
+        <v>104.3932452</v>
       </c>
       <c r="I155" t="n">
-        <v>94.5</v>
+        <v>110.11122508</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>100.7</v>
+        <v>96.87378406000001</v>
       </c>
       <c r="C156" t="n">
-        <v>105.2</v>
+        <v>94.81336854</v>
       </c>
       <c r="D156" t="n">
-        <v>100.1</v>
+        <v>100.11001671</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
-        <v>102.8</v>
+        <v>95.52006369</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>103.4</v>
+        <v>99.80458981</v>
       </c>
       <c r="I156" t="n">
-        <v>107.8</v>
+        <v>88.29213568999999</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>103.61236956</v>
+        <v>99.24722095</v>
       </c>
       <c r="C157" t="n">
-        <v>106.45548789</v>
+        <v>93.93187153</v>
       </c>
       <c r="D157" t="n">
-        <v>100.01882989</v>
+        <v>100.29626837</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>96.95587528999999</v>
+        <v>97.70264206</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>105.38277989</v>
+        <v>98.08690482999999</v>
       </c>
       <c r="I157" t="n">
-        <v>114.48731897</v>
+        <v>92.2824581</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>102.79414021</v>
+        <v>101.46569418</v>
       </c>
       <c r="C158" t="n">
-        <v>106.78937976</v>
+        <v>93.54136699</v>
       </c>
       <c r="D158" t="n">
-        <v>100.26782952</v>
+        <v>100.45682781</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
-        <v>93.24543623</v>
+        <v>95.13782725</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>104.3932452</v>
+        <v>99.52627192</v>
       </c>
       <c r="I158" t="n">
-        <v>110.11122508</v>
+        <v>87.56115671000001</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>96.87378406000001</v>
+        <v>100.50182683</v>
       </c>
       <c r="C159" t="n">
-        <v>94.81336854</v>
+        <v>102.61976268</v>
       </c>
       <c r="D159" t="n">
-        <v>100.11001671</v>
+        <v>100.04253234</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
-        <v>95.52006369</v>
+        <v>96.12448474</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>99.80458981</v>
+        <v>93.35523593000001</v>
       </c>
       <c r="I159" t="n">
-        <v>88.29213568999999</v>
+        <v>101.18705785</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>99.24722095</v>
+        <v>100.46897974</v>
       </c>
       <c r="C160" t="n">
-        <v>93.93187153</v>
+        <v>108.16912059</v>
       </c>
       <c r="D160" t="n">
-        <v>100.29626837</v>
+        <v>99.92422185</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
-        <v>97.70264206</v>
+        <v>103.31904932</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>98.08690482999999</v>
+        <v>95.18040133</v>
       </c>
       <c r="I160" t="n">
-        <v>92.2824581</v>
+        <v>107.00982367</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>101.46569418</v>
+        <v>99.70190829000001</v>
       </c>
       <c r="C161" t="n">
-        <v>93.54136699</v>
+        <v>101.59552289</v>
       </c>
       <c r="D161" t="n">
-        <v>100.45682781</v>
+        <v>100.00885995</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
-        <v>95.13782725</v>
+        <v>110.40886438</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>99.52627192</v>
+        <v>99.16693936</v>
       </c>
       <c r="I161" t="n">
-        <v>87.56115671000001</v>
+        <v>107.26211545</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>100.50182683</v>
+        <v>99.49716812</v>
       </c>
       <c r="C162" t="n">
-        <v>102.61976268</v>
+        <v>99.0108812</v>
       </c>
       <c r="D162" t="n">
-        <v>100.04253234</v>
+        <v>100.08405667</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
-        <v>96.12448474</v>
+        <v>101.25440609</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>93.35523593000001</v>
+        <v>105.83007459</v>
       </c>
       <c r="I162" t="n">
-        <v>101.18705785</v>
+        <v>102.42620522</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>100.46897974</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C163" t="n">
-        <v>108.16912059</v>
+        <v>94.8</v>
       </c>
       <c r="D163" t="n">
-        <v>99.92422185</v>
+        <v>100</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
-        <v>103.31904932</v>
+        <v>98.2</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>95.18040133</v>
+        <v>101.8</v>
       </c>
       <c r="I163" t="n">
-        <v>107.00982367</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>99.70190829000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C164" t="n">
-        <v>101.59552289</v>
+        <v>95</v>
       </c>
       <c r="D164" t="n">
-        <v>100.00885995</v>
+        <v>100.2</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="n">
-        <v>110.40886438</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>99.16693936</v>
+        <v>99.3</v>
       </c>
       <c r="I164" t="n">
-        <v>107.26211545</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>99.49716812</v>
+        <v>100.7</v>
       </c>
       <c r="C165" t="n">
-        <v>99.0108812</v>
+        <v>105.2</v>
       </c>
       <c r="D165" t="n">
-        <v>100.08405667</v>
+        <v>100.1</v>
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="n">
-        <v>101.25440609</v>
+        <v>102.8</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>105.83007459</v>
+        <v>103.4</v>
       </c>
       <c r="I165" t="n">
-        <v>102.42620522</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>97.7</v>
+        <v>102.1</v>
       </c>
       <c r="C166" t="n">
-        <v>98.8</v>
+        <v>104.3</v>
       </c>
       <c r="D166" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="n">
-        <v>98</v>
+        <v>110.4</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>101.8</v>
+        <v>102.7</v>
       </c>
       <c r="I166" t="n">
-        <v>115.1</v>
+        <v>117.9</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B167" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="C167" t="n">
         <v>98</v>
       </c>
-      <c r="C167" t="n">
-        <v>106.5</v>
-      </c>
       <c r="D167" t="n">
-        <v>100.8</v>
+        <v>100.4</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="n">
-        <v>103.1</v>
+        <v>96</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>104.6</v>
+        <v>106.8</v>
       </c>
       <c r="I167" t="n">
-        <v>108.3</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C168" t="n">
-        <v>100.7</v>
+        <v>92.8</v>
       </c>
       <c r="D168" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="n">
-        <v>98.2</v>
+        <v>95.8</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>104.1</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="I168" t="n">
-        <v>92.09999999999999</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>102.1</v>
+        <v>103.8</v>
       </c>
       <c r="C169" t="n">
-        <v>104.3</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D169" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="n">
-        <v>110.4</v>
+        <v>101</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>102.7</v>
+        <v>96.7</v>
       </c>
       <c r="I169" t="n">
-        <v>117.9</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>107.6</v>
+        <v>104.1</v>
       </c>
       <c r="C170" t="n">
-        <v>98</v>
+        <v>92.7</v>
       </c>
       <c r="D170" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
-        <v>96</v>
+        <v>102.9</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>106.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="I170" t="n">
-        <v>101.3</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>99.40000000000001</v>
+        <v>100.8</v>
       </c>
       <c r="C171" t="n">
-        <v>92.8</v>
+        <v>91.3</v>
       </c>
       <c r="D171" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="n">
-        <v>95.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>98.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="I171" t="n">
-        <v>86.5</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>103.8</v>
+        <v>100.3</v>
       </c>
       <c r="C172" t="n">
-        <v>92.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="D172" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="n">
-        <v>101</v>
+        <v>101.2</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>96.7</v>
+        <v>97</v>
       </c>
       <c r="I172" t="n">
-        <v>91.5</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>104.1</v>
+        <v>98.3</v>
       </c>
       <c r="C173" t="n">
-        <v>92.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D173" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
-        <v>102.9</v>
+        <v>107.8</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>96.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="I173" t="n">
-        <v>93.5</v>
+        <v>109.3</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>100.8</v>
+        <v>97.3</v>
       </c>
       <c r="C174" t="n">
-        <v>91.3</v>
+        <v>97.5</v>
       </c>
       <c r="D174" t="n">
         <v>100</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="n">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>95.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="I174" t="n">
-        <v>97.3</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>100.3</v>
+        <v>97.7</v>
       </c>
       <c r="C175" t="n">
-        <v>98.5</v>
+        <v>98.8</v>
       </c>
       <c r="D175" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="n">
-        <v>101.2</v>
+        <v>98</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>97</v>
+        <v>101.8</v>
       </c>
       <c r="I175" t="n">
-        <v>101.3</v>
+        <v>115.1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>98.3</v>
+        <v>98</v>
       </c>
       <c r="C176" t="n">
-        <v>99.09999999999999</v>
+        <v>106.5</v>
       </c>
       <c r="D176" t="n">
-        <v>100.1</v>
+        <v>100.8</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="n">
-        <v>107.8</v>
+        <v>103.1</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>100.3</v>
+        <v>104.6</v>
       </c>
       <c r="I176" t="n">
-        <v>109.3</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>97.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C177" t="n">
-        <v>97.5</v>
+        <v>100.7</v>
       </c>
       <c r="D177" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
-        <v>99.8</v>
+        <v>98.2</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>100</v>
+        <v>104.1</v>
       </c>
       <c r="I177" t="n">
-        <v>101.6</v>
+        <v>92.09999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/食品类农村居民消费价格指数(上月=100).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/食品类农村居民消费价格指数(上月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,4961 +478,4546 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006-12</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.4</v>
+        <v>99.54330385999999</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>102.6</v>
+        <v>100.76683549</v>
       </c>
       <c r="E2" t="n">
-        <v>104.8</v>
+        <v>101.27455094</v>
       </c>
       <c r="F2" t="n">
-        <v>103.9</v>
+        <v>97.89950193</v>
       </c>
       <c r="G2" t="n">
-        <v>103.7</v>
+        <v>100.90581688</v>
       </c>
       <c r="H2" t="n">
-        <v>104.6</v>
+        <v>98.44983007</v>
       </c>
       <c r="I2" t="n">
-        <v>114.8</v>
+        <v>104.79411075</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007-01</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.5</v>
+        <v>100.36384891</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>100.4</v>
+        <v>102.99813463</v>
       </c>
       <c r="E3" t="n">
-        <v>102.6</v>
+        <v>102.93548486</v>
       </c>
       <c r="F3" t="n">
-        <v>101.4</v>
+        <v>103.29044804</v>
       </c>
       <c r="G3" t="n">
-        <v>101.9</v>
+        <v>102.23563254</v>
       </c>
       <c r="H3" t="n">
-        <v>109.1</v>
+        <v>104.72480862</v>
       </c>
       <c r="I3" t="n">
-        <v>105.2</v>
+        <v>98.44680418999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007-02</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.1</v>
+        <v>100.96749135</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>101.821361</v>
       </c>
       <c r="E4" t="n">
-        <v>102.8</v>
+        <v>101.45092559</v>
       </c>
       <c r="F4" t="n">
-        <v>102.2</v>
+        <v>102.09785373</v>
       </c>
       <c r="G4" t="n">
-        <v>102.4</v>
+        <v>100.78705145</v>
       </c>
       <c r="H4" t="n">
-        <v>109.4</v>
+        <v>105.8740762</v>
       </c>
       <c r="I4" t="n">
-        <v>108.2</v>
+        <v>91.78098192</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007-03</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.59999999999999</v>
+        <v>102.36083531</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>99.7</v>
+        <v>101.19142023</v>
       </c>
       <c r="E5" t="n">
-        <v>97.40000000000001</v>
+        <v>100.5489865</v>
       </c>
       <c r="F5" t="n">
-        <v>97.09999999999999</v>
+        <v>101.58977474</v>
       </c>
       <c r="G5" t="n">
-        <v>99.3</v>
+        <v>101.53710584</v>
       </c>
       <c r="H5" t="n">
-        <v>101.8</v>
+        <v>105.2592317</v>
       </c>
       <c r="I5" t="n">
-        <v>101.3</v>
+        <v>106.12921612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007-04</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97.90000000000001</v>
+        <v>107.45747063</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>99.7</v>
+        <v>100.90627355</v>
       </c>
       <c r="E6" t="n">
-        <v>98.8</v>
+        <v>101.46028632</v>
       </c>
       <c r="F6" t="n">
-        <v>99</v>
+        <v>101.74395151</v>
       </c>
       <c r="G6" t="n">
-        <v>99.40000000000001</v>
+        <v>102.91961772</v>
       </c>
       <c r="H6" t="n">
-        <v>97.59999999999999</v>
+        <v>111.54208874</v>
       </c>
       <c r="I6" t="n">
-        <v>99.09999999999999</v>
+        <v>112.44485767</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007-05</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.62285955</v>
+        <v>97.02990745</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>100.00703681</v>
+        <v>101.49777655</v>
       </c>
       <c r="E7" t="n">
-        <v>106.47620745</v>
+        <v>95.66017432</v>
       </c>
       <c r="F7" t="n">
-        <v>104.88199569</v>
+        <v>96.7650323</v>
       </c>
       <c r="G7" t="n">
-        <v>101.00046215</v>
+        <v>98.52113597</v>
       </c>
       <c r="H7" t="n">
-        <v>99.05909541</v>
+        <v>100.86771068</v>
       </c>
       <c r="I7" t="n">
-        <v>87.19766903999999</v>
+        <v>96.32202141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007-06</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102.3</v>
+        <v>99.17799264</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>100.6</v>
+        <v>101.73965604</v>
       </c>
       <c r="E8" t="n">
-        <v>107.3</v>
+        <v>96.93938507</v>
       </c>
       <c r="F8" t="n">
-        <v>103.4</v>
+        <v>98.30973333</v>
       </c>
       <c r="G8" t="n">
-        <v>101.9</v>
+        <v>99.97449340999999</v>
       </c>
       <c r="H8" t="n">
-        <v>89.40000000000001</v>
+        <v>104.53136726</v>
       </c>
       <c r="I8" t="n">
-        <v>95.90000000000001</v>
+        <v>102.07005732</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>101.1</v>
+        <v>99.72059539</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>101</v>
+        <v>101.82694342</v>
       </c>
       <c r="E9" t="n">
-        <v>106.5</v>
+        <v>99.25581584</v>
       </c>
       <c r="F9" t="n">
-        <v>105.7</v>
+        <v>99.87085946000001</v>
       </c>
       <c r="G9" t="n">
-        <v>103.8</v>
+        <v>99.57816712</v>
       </c>
       <c r="H9" t="n">
-        <v>100.7</v>
+        <v>105.59076488</v>
       </c>
       <c r="I9" t="n">
-        <v>111</v>
+        <v>89.7666905</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007-09</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.7</v>
+        <v>100.98748718</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>100.6</v>
+        <v>100.74112226</v>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>99.44707685</v>
       </c>
       <c r="F10" t="n">
-        <v>102.6</v>
+        <v>101.59747792</v>
       </c>
       <c r="G10" t="n">
-        <v>100.2</v>
+        <v>98.46712592999999</v>
       </c>
       <c r="H10" t="n">
-        <v>104.8</v>
+        <v>95.94889662</v>
       </c>
       <c r="I10" t="n">
-        <v>100.9</v>
+        <v>84.99662096</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007-11</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.2</v>
+        <v>100.9322898</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>100.9</v>
+        <v>100.38797716</v>
       </c>
       <c r="E11" t="n">
-        <v>102</v>
+        <v>104.21284786</v>
       </c>
       <c r="F11" t="n">
-        <v>97.09999999999999</v>
+        <v>103.15557796</v>
       </c>
       <c r="G11" t="n">
-        <v>101.4</v>
+        <v>101.097422</v>
       </c>
       <c r="H11" t="n">
-        <v>104.1</v>
+        <v>93.99466837</v>
       </c>
       <c r="I11" t="n">
-        <v>99.59999999999999</v>
+        <v>103.44761522</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007-12</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.5</v>
+        <v>100.5047796</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>101.1</v>
+        <v>100.66325709</v>
       </c>
       <c r="E12" t="n">
-        <v>104.8</v>
+        <v>105.35350126</v>
       </c>
       <c r="F12" t="n">
-        <v>99.3</v>
+        <v>106.68063243</v>
       </c>
       <c r="G12" t="n">
-        <v>102.3</v>
+        <v>102.34838597</v>
       </c>
       <c r="H12" t="n">
-        <v>104.1</v>
+        <v>98.75414537</v>
       </c>
       <c r="I12" t="n">
-        <v>97.40000000000001</v>
+        <v>108.57006669</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2008-01</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.1</v>
+        <v>100.43280095</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>100.4</v>
+        <v>100.75004226</v>
       </c>
       <c r="E13" t="n">
-        <v>104.5</v>
+        <v>102.2562257</v>
       </c>
       <c r="F13" t="n">
-        <v>101.4</v>
+        <v>104.09357874</v>
       </c>
       <c r="G13" t="n">
-        <v>103.2</v>
+        <v>101.3991896</v>
       </c>
       <c r="H13" t="n">
-        <v>106.5</v>
+        <v>102.69905684</v>
       </c>
       <c r="I13" t="n">
-        <v>108.3</v>
+        <v>103.55271289</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008-02</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>110.3</v>
+        <v>98.19173057</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>100.6</v>
+        <v>100.31478096</v>
       </c>
       <c r="E14" t="n">
-        <v>105.8</v>
+        <v>98.95522136</v>
       </c>
       <c r="F14" t="n">
-        <v>102.5</v>
+        <v>96.21716089</v>
       </c>
       <c r="G14" t="n">
-        <v>106.3</v>
+        <v>99.62899265</v>
       </c>
       <c r="H14" t="n">
-        <v>110.2</v>
+        <v>104.39287729</v>
       </c>
       <c r="I14" t="n">
-        <v>136.8</v>
+        <v>97.54880799</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008-03</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.40000000000001</v>
+        <v>98.94484180000001</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>100.4</v>
+        <v>100.02272763</v>
       </c>
       <c r="E15" t="n">
-        <v>97.8</v>
+        <v>96.98743714</v>
       </c>
       <c r="F15" t="n">
-        <v>95.59999999999999</v>
+        <v>95.94122657</v>
       </c>
       <c r="G15" t="n">
-        <v>98.5</v>
+        <v>98.89566067</v>
       </c>
       <c r="H15" t="n">
-        <v>97</v>
+        <v>106.20431964</v>
       </c>
       <c r="I15" t="n">
-        <v>86.2</v>
+        <v>93.85280542</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008-04</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.95653164</v>
+        <v>99.96172802</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>100.54722867</v>
+        <v>100.02833956</v>
       </c>
       <c r="E16" t="n">
-        <v>99.96501682</v>
+        <v>98.64696898</v>
       </c>
       <c r="F16" t="n">
-        <v>99.34660948</v>
+        <v>98.68127341</v>
       </c>
       <c r="G16" t="n">
-        <v>99.88630395</v>
+        <v>100.63659644</v>
       </c>
       <c r="H16" t="n">
-        <v>102.40392766</v>
+        <v>102.00887268</v>
       </c>
       <c r="I16" t="n">
-        <v>91.66188483000001</v>
+        <v>112.41457935</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008-05</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>103.3</v>
+        <v>102.95944392</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>101.5</v>
+        <v>100.90957437</v>
       </c>
       <c r="E17" t="n">
-        <v>98.5</v>
+        <v>101.40469305</v>
       </c>
       <c r="F17" t="n">
-        <v>102.8</v>
+        <v>102.5095105</v>
       </c>
       <c r="G17" t="n">
-        <v>98.90000000000001</v>
+        <v>102.60371569</v>
       </c>
       <c r="H17" t="n">
-        <v>98.59999999999999</v>
+        <v>109.3832952</v>
       </c>
       <c r="I17" t="n">
-        <v>84.3</v>
+        <v>114.14055339</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008-06</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>102</v>
+        <v>105.4408262</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>100.6</v>
+        <v>101.04684654</v>
       </c>
       <c r="E18" t="n">
-        <v>98.40000000000001</v>
+        <v>104.31982273</v>
       </c>
       <c r="F18" t="n">
-        <v>102.5</v>
+        <v>100.78288997</v>
       </c>
       <c r="G18" t="n">
-        <v>99.09999999999999</v>
+        <v>103.78629523</v>
       </c>
       <c r="H18" t="n">
-        <v>92.3</v>
+        <v>110.10530758</v>
       </c>
       <c r="I18" t="n">
-        <v>94.09999999999999</v>
+        <v>115.02328864</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008-07</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>100.5</v>
+        <v>101.3</v>
       </c>
       <c r="E19" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>99.5</v>
+        <v>92.8</v>
       </c>
       <c r="G19" t="n">
-        <v>99.90000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>95.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="I19" t="n">
-        <v>103.7</v>
+        <v>93.59999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.09999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>100.1</v>
+        <v>100.6</v>
       </c>
       <c r="E20" t="n">
-        <v>98.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="F20" t="n">
-        <v>103.8</v>
+        <v>97.8</v>
       </c>
       <c r="G20" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="H20" t="n">
-        <v>101</v>
+        <v>103.7</v>
       </c>
       <c r="I20" t="n">
-        <v>100.4</v>
+        <v>89.40000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008-10</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.7</v>
+        <v>101.5</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>99.59999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="E21" t="n">
-        <v>96.2</v>
+        <v>101.6</v>
       </c>
       <c r="F21" t="n">
-        <v>96.8</v>
+        <v>104.8</v>
       </c>
       <c r="G21" t="n">
-        <v>98.5</v>
+        <v>99.8</v>
       </c>
       <c r="H21" t="n">
-        <v>100.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>101.8</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008-11</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.40000000000001</v>
+        <v>102.4</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>99.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="E22" t="n">
-        <v>97.2</v>
+        <v>106.5</v>
       </c>
       <c r="F22" t="n">
-        <v>96.3</v>
+        <v>103.8</v>
       </c>
       <c r="G22" t="n">
-        <v>98.59999999999999</v>
+        <v>101.2</v>
       </c>
       <c r="H22" t="n">
-        <v>100.6</v>
+        <v>88.2</v>
       </c>
       <c r="I22" t="n">
-        <v>98.8</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008-12</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.39883464</v>
+        <v>102.33061738</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>99.70333697</v>
+        <v>100.40546878</v>
       </c>
       <c r="E23" t="n">
-        <v>102.36612139</v>
+        <v>104.71345912</v>
       </c>
       <c r="F23" t="n">
-        <v>98.82378687000001</v>
+        <v>101.17060564</v>
       </c>
       <c r="G23" t="n">
-        <v>100.7210954</v>
+        <v>101.24780921</v>
       </c>
       <c r="H23" t="n">
-        <v>101.01359627</v>
+        <v>89.18796587999999</v>
       </c>
       <c r="I23" t="n">
-        <v>105.21197828</v>
+        <v>103.04490153</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009-01</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>104.28370583</v>
+        <v>100.30343507</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>100.13596322</v>
+        <v>100.31529518</v>
       </c>
       <c r="E24" t="n">
-        <v>103.22433235</v>
+        <v>101.46732954</v>
       </c>
       <c r="F24" t="n">
-        <v>100.96779497</v>
+        <v>104.06244997</v>
       </c>
       <c r="G24" t="n">
-        <v>103.27762293</v>
+        <v>100.68749919</v>
       </c>
       <c r="H24" t="n">
-        <v>106.6240514</v>
+        <v>96.07964592</v>
       </c>
       <c r="I24" t="n">
-        <v>122.74329566</v>
+        <v>99.59117243999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.2</v>
+        <v>99.95283818999999</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>101.3</v>
+        <v>100.37392082</v>
       </c>
       <c r="E25" t="n">
-        <v>98.90000000000001</v>
+        <v>101.06125551</v>
       </c>
       <c r="F25" t="n">
-        <v>99.2</v>
+        <v>102.64728594</v>
       </c>
       <c r="G25" t="n">
-        <v>100.6</v>
+        <v>101.25636454</v>
       </c>
       <c r="H25" t="n">
-        <v>104.1</v>
+        <v>103.2627587</v>
       </c>
       <c r="I25" t="n">
-        <v>103.6</v>
+        <v>106.61462243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.54511332</v>
+        <v>98.72377007999999</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>100.46305726</v>
+        <v>100.32851082</v>
       </c>
       <c r="E26" t="n">
-        <v>96.42258950999999</v>
+        <v>100.79375444</v>
       </c>
       <c r="F26" t="n">
-        <v>102.40840483</v>
+        <v>96.19490519999999</v>
       </c>
       <c r="G26" t="n">
-        <v>99.40084880000001</v>
+        <v>99.21767719</v>
       </c>
       <c r="H26" t="n">
-        <v>106.89744966</v>
+        <v>100.92944424</v>
       </c>
       <c r="I26" t="n">
-        <v>97.00294255999999</v>
+        <v>87.93968982</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009-05</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.01742951</v>
+        <v>99.2251449</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>100.77388263</v>
+        <v>100.26585838</v>
       </c>
       <c r="E27" t="n">
-        <v>96.20279523000001</v>
+        <v>100.32523912</v>
       </c>
       <c r="F27" t="n">
-        <v>101.47023859</v>
+        <v>99.68455895</v>
       </c>
       <c r="G27" t="n">
-        <v>99.28804257</v>
+        <v>100.30182125</v>
       </c>
       <c r="H27" t="n">
-        <v>111.61072475</v>
+        <v>99.27088291</v>
       </c>
       <c r="I27" t="n">
-        <v>92.222435</v>
+        <v>102.58575381</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.61622589</v>
+        <v>101.38481207</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>100.42189297</v>
+        <v>100.37780955</v>
       </c>
       <c r="E28" t="n">
-        <v>101.89066971</v>
+        <v>102.54696829</v>
       </c>
       <c r="F28" t="n">
-        <v>98.17142131999999</v>
+        <v>103.45346756</v>
       </c>
       <c r="G28" t="n">
-        <v>100.05456602</v>
+        <v>102.43369597</v>
       </c>
       <c r="H28" t="n">
-        <v>96.6574758</v>
+        <v>101.27852257</v>
       </c>
       <c r="I28" t="n">
-        <v>99.00861734999999</v>
+        <v>117.79532846</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99.37478382</v>
+        <v>105.8046894</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>100.42241735</v>
+        <v>100.40446718</v>
       </c>
       <c r="E29" t="n">
-        <v>103.99165326</v>
+        <v>103.23449273</v>
       </c>
       <c r="F29" t="n">
-        <v>104.98441837</v>
+        <v>99.16840833000001</v>
       </c>
       <c r="G29" t="n">
-        <v>101.62364191</v>
+        <v>104.03737032</v>
       </c>
       <c r="H29" t="n">
-        <v>93.4937487</v>
+        <v>106.95307658</v>
       </c>
       <c r="I29" t="n">
-        <v>111.1578459</v>
+        <v>128.03490065</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.9266982</v>
+        <v>100.68751626</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>100.66217772</v>
+        <v>100.40322016</v>
       </c>
       <c r="E30" t="n">
-        <v>101.9182866</v>
+        <v>98.9157694</v>
       </c>
       <c r="F30" t="n">
-        <v>103.59845193</v>
+        <v>92.23843834</v>
       </c>
       <c r="G30" t="n">
-        <v>100.9996133</v>
+        <v>99.70122177</v>
       </c>
       <c r="H30" t="n">
-        <v>99.95279177</v>
+        <v>100.45138223</v>
       </c>
       <c r="I30" t="n">
-        <v>104.03917469</v>
+        <v>99.71537771</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.0919332</v>
+        <v>100.81555354</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>100.34411197</v>
+        <v>100.03142694</v>
       </c>
       <c r="E31" t="n">
-        <v>99.69480186</v>
+        <v>97.45579769</v>
       </c>
       <c r="F31" t="n">
-        <v>97.55479156</v>
+        <v>97.29145982</v>
       </c>
       <c r="G31" t="n">
-        <v>99.18431144</v>
+        <v>99.86801935</v>
       </c>
       <c r="H31" t="n">
-        <v>97.47084532</v>
+        <v>99.02877780999999</v>
       </c>
       <c r="I31" t="n">
-        <v>94.18240844</v>
+        <v>105.65888555</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99.90135287</v>
+        <v>101.41571918</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>100.2960066</v>
+        <v>100.12025073</v>
       </c>
       <c r="E32" t="n">
-        <v>99.90798411999999</v>
+        <v>97.31329838000001</v>
       </c>
       <c r="F32" t="n">
-        <v>97.51044829</v>
+        <v>98.42770168</v>
       </c>
       <c r="G32" t="n">
-        <v>100.54417181</v>
+        <v>99.04269021</v>
       </c>
       <c r="H32" t="n">
-        <v>98.20801539</v>
+        <v>99.78500395</v>
       </c>
       <c r="I32" t="n">
-        <v>106.91590643</v>
+        <v>95.43640535999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>101.47644719</v>
+        <v>101.14486437</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>101.49309572</v>
+        <v>100.15918101</v>
       </c>
       <c r="E33" t="n">
-        <v>101.75802857</v>
+        <v>98.07362245</v>
       </c>
       <c r="F33" t="n">
-        <v>100.92913348</v>
+        <v>100.1075045</v>
       </c>
       <c r="G33" t="n">
-        <v>102.62332445</v>
+        <v>99.07031379</v>
       </c>
       <c r="H33" t="n">
-        <v>102.88201811</v>
+        <v>99.45075931</v>
       </c>
       <c r="I33" t="n">
-        <v>114.62528663</v>
+        <v>92.84295665</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2010-01</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.36083531</v>
+        <v>100.882053</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>101.19142023</v>
+        <v>100.15645838</v>
       </c>
       <c r="E34" t="n">
-        <v>100.5489865</v>
+        <v>99.01644443000001</v>
       </c>
       <c r="F34" t="n">
-        <v>101.58977474</v>
+        <v>111.36882532</v>
       </c>
       <c r="G34" t="n">
-        <v>101.53710584</v>
+        <v>98.66460425</v>
       </c>
       <c r="H34" t="n">
-        <v>105.2592317</v>
+        <v>95.16221602</v>
       </c>
       <c r="I34" t="n">
-        <v>106.12921612</v>
+        <v>84.60238074999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>107.45747063</v>
+        <v>100.02183878</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>100.90627355</v>
+        <v>100.27212342</v>
       </c>
       <c r="E35" t="n">
-        <v>101.46028632</v>
+        <v>99.84264711</v>
       </c>
       <c r="F35" t="n">
-        <v>101.74395151</v>
+        <v>98.32375544</v>
       </c>
       <c r="G35" t="n">
-        <v>102.91961772</v>
+        <v>99.74860381000001</v>
       </c>
       <c r="H35" t="n">
-        <v>111.54208874</v>
+        <v>95.32308533</v>
       </c>
       <c r="I35" t="n">
-        <v>112.44485767</v>
+        <v>99.40596128</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>97.02990745</v>
+        <v>98.79600084</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>101.49777655</v>
+        <v>100.58710867</v>
       </c>
       <c r="E36" t="n">
-        <v>95.66017432</v>
+        <v>101.44598404</v>
       </c>
       <c r="F36" t="n">
-        <v>96.7650323</v>
+        <v>107.79615274</v>
       </c>
       <c r="G36" t="n">
-        <v>98.52113597</v>
+        <v>101.68852228</v>
       </c>
       <c r="H36" t="n">
-        <v>100.86771068</v>
+        <v>97.97465606999999</v>
       </c>
       <c r="I36" t="n">
-        <v>96.32202141</v>
+        <v>113.94172357</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.17799264</v>
+        <v>99.00543587</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>101.73965604</v>
+        <v>101.00775861</v>
       </c>
       <c r="E37" t="n">
-        <v>96.93938507</v>
+        <v>101.87987385</v>
       </c>
       <c r="F37" t="n">
-        <v>98.30973333</v>
+        <v>105.82263487</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97449340999999</v>
+        <v>100.54634432</v>
       </c>
       <c r="H37" t="n">
-        <v>104.53136726</v>
+        <v>100.61767131</v>
       </c>
       <c r="I37" t="n">
-        <v>102.07005732</v>
+        <v>95.79274407</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.72059539</v>
+        <v>98.58857507</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>101.82694342</v>
+        <v>100.29724963</v>
       </c>
       <c r="E38" t="n">
-        <v>99.25581584</v>
+        <v>100.03568595</v>
       </c>
       <c r="F38" t="n">
-        <v>99.87085946000001</v>
+        <v>94.12663884</v>
       </c>
       <c r="G38" t="n">
-        <v>99.57816712</v>
+        <v>99.4304647</v>
       </c>
       <c r="H38" t="n">
-        <v>105.59076488</v>
+        <v>98.13163521</v>
       </c>
       <c r="I38" t="n">
-        <v>89.7666905</v>
+        <v>96.62424294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.98748718</v>
+        <v>99.5218996</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>100.74112226</v>
+        <v>100.31015269</v>
       </c>
       <c r="E39" t="n">
-        <v>99.44707685</v>
+        <v>99.99890781000001</v>
       </c>
       <c r="F39" t="n">
-        <v>101.59747792</v>
+        <v>98.68179915</v>
       </c>
       <c r="G39" t="n">
-        <v>98.46712592999999</v>
+        <v>99.63126626</v>
       </c>
       <c r="H39" t="n">
-        <v>95.94889662</v>
+        <v>99.73427902</v>
       </c>
       <c r="I39" t="n">
-        <v>84.99662096</v>
+        <v>95.36757835</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.9322898</v>
+        <v>100.71964323</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>100.38797716</v>
+        <v>100.16344926</v>
       </c>
       <c r="E40" t="n">
-        <v>104.21284786</v>
+        <v>100.49714937</v>
       </c>
       <c r="F40" t="n">
-        <v>103.15557796</v>
+        <v>101.03406382</v>
       </c>
       <c r="G40" t="n">
-        <v>101.097422</v>
+        <v>100.55581083</v>
       </c>
       <c r="H40" t="n">
-        <v>93.99466837</v>
+        <v>104.72903922</v>
       </c>
       <c r="I40" t="n">
-        <v>103.44761522</v>
+        <v>98.99667683</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.5047796</v>
+        <v>102.87813555</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>100.66325709</v>
+        <v>101.10823086</v>
       </c>
       <c r="E41" t="n">
-        <v>105.35350126</v>
+        <v>104.02545243</v>
       </c>
       <c r="F41" t="n">
-        <v>106.68063243</v>
+        <v>101.79981765</v>
       </c>
       <c r="G41" t="n">
-        <v>102.34838597</v>
+        <v>103.13085239</v>
       </c>
       <c r="H41" t="n">
-        <v>98.75414537</v>
+        <v>104.7600852</v>
       </c>
       <c r="I41" t="n">
-        <v>108.57006669</v>
+        <v>114.68033707</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.43280095</v>
+        <v>105.57886303</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>100.75004226</v>
+        <v>100.68450196</v>
       </c>
       <c r="E42" t="n">
-        <v>102.2562257</v>
+        <v>102.327927</v>
       </c>
       <c r="F42" t="n">
-        <v>104.09357874</v>
+        <v>99.59944797</v>
       </c>
       <c r="G42" t="n">
-        <v>101.3991896</v>
+        <v>102.46843529</v>
       </c>
       <c r="H42" t="n">
-        <v>102.69905684</v>
+        <v>110.79787335</v>
       </c>
       <c r="I42" t="n">
-        <v>103.55271289</v>
+        <v>106.30301661</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.54330385999999</v>
+        <v>95.13328085000001</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>100.76683549</v>
+        <v>100.19430736</v>
       </c>
       <c r="E43" t="n">
-        <v>101.27455094</v>
+        <v>94.98651595</v>
       </c>
       <c r="F43" t="n">
-        <v>97.89950193</v>
+        <v>92.31204442000001</v>
       </c>
       <c r="G43" t="n">
-        <v>100.90581688</v>
+        <v>96.98791782000001</v>
       </c>
       <c r="H43" t="n">
-        <v>98.44983007</v>
+        <v>100.83935323</v>
       </c>
       <c r="I43" t="n">
-        <v>104.79411075</v>
+        <v>86.79632549999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.36384891</v>
+        <v>101.12195207</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>102.99813463</v>
+        <v>100.19184454</v>
       </c>
       <c r="E44" t="n">
-        <v>102.93548486</v>
+        <v>95.46300182</v>
       </c>
       <c r="F44" t="n">
-        <v>103.29044804</v>
+        <v>96.51609849</v>
       </c>
       <c r="G44" t="n">
-        <v>102.23563254</v>
+        <v>100.01704162</v>
       </c>
       <c r="H44" t="n">
-        <v>104.72480862</v>
+        <v>100.42998027</v>
       </c>
       <c r="I44" t="n">
-        <v>98.44680418999999</v>
+        <v>111.51010905</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.96749135</v>
+        <v>100.41118658</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>101.821361</v>
+        <v>100.09367298</v>
       </c>
       <c r="E45" t="n">
-        <v>101.45092559</v>
+        <v>98.0879321</v>
       </c>
       <c r="F45" t="n">
-        <v>102.09785373</v>
+        <v>99.60104446</v>
       </c>
       <c r="G45" t="n">
-        <v>100.78705145</v>
+        <v>98.48359357</v>
       </c>
       <c r="H45" t="n">
-        <v>105.8740762</v>
+        <v>101.51507548</v>
       </c>
       <c r="I45" t="n">
-        <v>91.78098192</v>
+        <v>87.54777563</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>102.95944392</v>
+        <v>100.45729525</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>100.90957437</v>
+        <v>99.95909768</v>
       </c>
       <c r="E46" t="n">
-        <v>101.40469305</v>
+        <v>102.88184822</v>
       </c>
       <c r="F46" t="n">
-        <v>102.5095105</v>
+        <v>100.37195335</v>
       </c>
       <c r="G46" t="n">
-        <v>102.60371569</v>
+        <v>100.12827488</v>
       </c>
       <c r="H46" t="n">
-        <v>109.3832952</v>
+        <v>99.27793567000001</v>
       </c>
       <c r="I46" t="n">
-        <v>114.14055339</v>
+        <v>93.80106517999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>105.4408262</v>
+        <v>99.98718841</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>101.04684654</v>
+        <v>100.23400209</v>
       </c>
       <c r="E47" t="n">
-        <v>104.31982273</v>
+        <v>101.02841766</v>
       </c>
       <c r="F47" t="n">
-        <v>100.78288997</v>
+        <v>98.61603692</v>
       </c>
       <c r="G47" t="n">
-        <v>103.78629523</v>
+        <v>99.96658370999999</v>
       </c>
       <c r="H47" t="n">
-        <v>110.10530758</v>
+        <v>93.37446973</v>
       </c>
       <c r="I47" t="n">
-        <v>115.02328864</v>
+        <v>101.30125085</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>97.09999999999999</v>
+        <v>100.33369516</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>101.3</v>
+        <v>100.35861204</v>
       </c>
       <c r="E48" t="n">
-        <v>98.59999999999999</v>
+        <v>102.95744744</v>
       </c>
       <c r="F48" t="n">
-        <v>92.8</v>
+        <v>107.21715562</v>
       </c>
       <c r="G48" t="n">
-        <v>98.90000000000001</v>
+        <v>101.64020709</v>
       </c>
       <c r="H48" t="n">
-        <v>99</v>
+        <v>97.33229095</v>
       </c>
       <c r="I48" t="n">
-        <v>93.59999999999999</v>
+        <v>108.74556487</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100.2</v>
+        <v>100.38666375</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>100.6</v>
+        <v>100.34840739</v>
       </c>
       <c r="E49" t="n">
-        <v>100.5</v>
+        <v>101.78605309</v>
       </c>
       <c r="F49" t="n">
-        <v>97.8</v>
+        <v>106.99499487</v>
       </c>
       <c r="G49" t="n">
-        <v>99.5</v>
+        <v>101.67138916</v>
       </c>
       <c r="H49" t="n">
-        <v>103.7</v>
+        <v>105.1235869</v>
       </c>
       <c r="I49" t="n">
-        <v>89.40000000000001</v>
+        <v>107.07705193</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>101.5</v>
+        <v>98.96537254</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>100.4</v>
+        <v>100.14111817</v>
       </c>
       <c r="E50" t="n">
-        <v>101.6</v>
+        <v>99.95266101999999</v>
       </c>
       <c r="F50" t="n">
-        <v>104.8</v>
+        <v>96.81607520999999</v>
       </c>
       <c r="G50" t="n">
-        <v>99.8</v>
+        <v>99.64620733</v>
       </c>
       <c r="H50" t="n">
-        <v>96.59999999999999</v>
+        <v>96.67751875</v>
       </c>
       <c r="I50" t="n">
-        <v>90.2</v>
+        <v>99.72966363</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>102.4</v>
+        <v>99.19515336000001</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>100.3</v>
+        <v>100.05521088</v>
       </c>
       <c r="E51" t="n">
-        <v>106.5</v>
+        <v>99.40641762</v>
       </c>
       <c r="F51" t="n">
-        <v>103.8</v>
+        <v>98.86693941999999</v>
       </c>
       <c r="G51" t="n">
-        <v>101.2</v>
+        <v>99.53329499</v>
       </c>
       <c r="H51" t="n">
-        <v>88.2</v>
+        <v>98.91814969000001</v>
       </c>
       <c r="I51" t="n">
-        <v>97.7</v>
+        <v>97.81298497</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>102.33061738</v>
+        <v>100.77586551</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>100.40546878</v>
+        <v>100.06450056</v>
       </c>
       <c r="E52" t="n">
-        <v>104.71345912</v>
+        <v>99.69512159</v>
       </c>
       <c r="F52" t="n">
-        <v>101.17060564</v>
+        <v>98.62698399</v>
       </c>
       <c r="G52" t="n">
-        <v>101.24780921</v>
+        <v>101.01785004</v>
       </c>
       <c r="H52" t="n">
-        <v>89.18796587999999</v>
+        <v>102.58989872</v>
       </c>
       <c r="I52" t="n">
-        <v>103.04490153</v>
+        <v>110.94054546</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>100.30343507</v>
+        <v>103.44129179</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>100.31529518</v>
+        <v>100.26858322</v>
       </c>
       <c r="E53" t="n">
-        <v>101.46732954</v>
+        <v>99.8555168</v>
       </c>
       <c r="F53" t="n">
-        <v>104.06244997</v>
+        <v>102.03934393</v>
       </c>
       <c r="G53" t="n">
-        <v>100.68749919</v>
+        <v>102.12994925</v>
       </c>
       <c r="H53" t="n">
-        <v>96.07964592</v>
+        <v>110.40022108</v>
       </c>
       <c r="I53" t="n">
-        <v>99.59117243999999</v>
+        <v>112.40128099</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>99.95283818999999</v>
+        <v>103.89606937</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>100.37392082</v>
+        <v>100.26227142</v>
       </c>
       <c r="E54" t="n">
-        <v>101.06125551</v>
+        <v>98.57193927</v>
       </c>
       <c r="F54" t="n">
-        <v>102.64728594</v>
+        <v>96.88048468</v>
       </c>
       <c r="G54" t="n">
-        <v>101.25636454</v>
+        <v>101.24472937</v>
       </c>
       <c r="H54" t="n">
-        <v>103.2627587</v>
+        <v>108.04578134</v>
       </c>
       <c r="I54" t="n">
-        <v>106.61462243</v>
+        <v>107.7005514</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>98.19173057</v>
+        <v>97.52628373</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>100.31478096</v>
+        <v>100.29164945</v>
       </c>
       <c r="E55" t="n">
-        <v>98.95522136</v>
+        <v>95.96355672</v>
       </c>
       <c r="F55" t="n">
-        <v>96.21716089</v>
+        <v>98.63415311</v>
       </c>
       <c r="G55" t="n">
-        <v>99.62899265</v>
+        <v>98.22689076</v>
       </c>
       <c r="H55" t="n">
-        <v>104.39287729</v>
+        <v>98.70307323999999</v>
       </c>
       <c r="I55" t="n">
-        <v>97.54880799</v>
+        <v>94.73725089</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>98.94484180000001</v>
+        <v>99.5076303</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>100.02272763</v>
+        <v>100.28206452</v>
       </c>
       <c r="E56" t="n">
-        <v>96.98743714</v>
+        <v>96.89766277</v>
       </c>
       <c r="F56" t="n">
-        <v>95.94122657</v>
+        <v>103.57157588</v>
       </c>
       <c r="G56" t="n">
-        <v>98.89566067</v>
+        <v>98.67502591</v>
       </c>
       <c r="H56" t="n">
-        <v>106.20431964</v>
+        <v>101.56498109</v>
       </c>
       <c r="I56" t="n">
-        <v>93.85280542</v>
+        <v>91.71476226999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.96172802</v>
+        <v>100.05561796</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>100.02833956</v>
+        <v>100.19120633</v>
       </c>
       <c r="E57" t="n">
-        <v>98.64696898</v>
+        <v>102.85129205</v>
       </c>
       <c r="F57" t="n">
-        <v>98.68127341</v>
+        <v>109.51269926</v>
       </c>
       <c r="G57" t="n">
-        <v>100.63659644</v>
+        <v>100.3910404</v>
       </c>
       <c r="H57" t="n">
-        <v>102.00887268</v>
+        <v>102.48370411</v>
       </c>
       <c r="I57" t="n">
-        <v>112.41457935</v>
+        <v>91.47352544</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>105.8046894</v>
+        <v>100.06415682</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>100.40446718</v>
+        <v>100.34770855</v>
       </c>
       <c r="E58" t="n">
-        <v>103.23449273</v>
+        <v>101.49103087</v>
       </c>
       <c r="F58" t="n">
-        <v>99.16840833000001</v>
+        <v>96.79056862</v>
       </c>
       <c r="G58" t="n">
-        <v>104.03737032</v>
+        <v>99.75035407</v>
       </c>
       <c r="H58" t="n">
-        <v>106.95307658</v>
+        <v>98.57283323</v>
       </c>
       <c r="I58" t="n">
-        <v>128.03490065</v>
+        <v>94.81041499</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>100.68751626</v>
+        <v>100.20674353</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>100.40322016</v>
+        <v>100.20110091</v>
       </c>
       <c r="E59" t="n">
-        <v>98.9157694</v>
+        <v>100.21393134</v>
       </c>
       <c r="F59" t="n">
-        <v>92.23843834</v>
+        <v>104.15297898</v>
       </c>
       <c r="G59" t="n">
-        <v>99.70122177</v>
+        <v>100.03413442</v>
       </c>
       <c r="H59" t="n">
-        <v>100.45138223</v>
+        <v>93.90460994</v>
       </c>
       <c r="I59" t="n">
-        <v>99.71537771</v>
+        <v>102.52021777</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>100.81555354</v>
+        <v>99.83909934</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>100.03142694</v>
+        <v>100.30841087</v>
       </c>
       <c r="E60" t="n">
-        <v>97.45579769</v>
+        <v>102.87340531</v>
       </c>
       <c r="F60" t="n">
-        <v>97.29145982</v>
+        <v>106.28347805</v>
       </c>
       <c r="G60" t="n">
-        <v>99.86801935</v>
+        <v>101.02771236</v>
       </c>
       <c r="H60" t="n">
-        <v>99.02877780999999</v>
+        <v>98.31407142</v>
       </c>
       <c r="I60" t="n">
-        <v>105.65888555</v>
+        <v>102.24533431</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>101.41571918</v>
+        <v>99.49745845</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>100.12025073</v>
+        <v>100.35831681</v>
       </c>
       <c r="E61" t="n">
-        <v>97.31329838000001</v>
+        <v>101.61398708</v>
       </c>
       <c r="F61" t="n">
-        <v>98.42770168</v>
+        <v>101.65369468</v>
       </c>
       <c r="G61" t="n">
-        <v>99.04269021</v>
+        <v>100.84056147</v>
       </c>
       <c r="H61" t="n">
-        <v>99.78500395</v>
+        <v>101.06452103</v>
       </c>
       <c r="I61" t="n">
-        <v>95.43640535999999</v>
+        <v>103.23088238</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>101.14486437</v>
+        <v>98.92066397000001</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>100.15918101</v>
+        <v>100.05794131</v>
       </c>
       <c r="E62" t="n">
-        <v>98.07362245</v>
+        <v>99.03327298000001</v>
       </c>
       <c r="F62" t="n">
-        <v>100.1075045</v>
+        <v>93.20808009</v>
       </c>
       <c r="G62" t="n">
-        <v>99.07031379</v>
+        <v>98.93892707000001</v>
       </c>
       <c r="H62" t="n">
-        <v>99.45075931</v>
+        <v>98.3821476</v>
       </c>
       <c r="I62" t="n">
-        <v>92.84295665</v>
+        <v>94.50881136</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100.882053</v>
+        <v>98.91284</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>100.15645838</v>
+        <v>99.85876621</v>
       </c>
       <c r="E63" t="n">
-        <v>99.01644443000001</v>
+        <v>98.27574604</v>
       </c>
       <c r="F63" t="n">
-        <v>111.36882532</v>
+        <v>99.04174528</v>
       </c>
       <c r="G63" t="n">
-        <v>98.66460425</v>
+        <v>99.69291463</v>
       </c>
       <c r="H63" t="n">
-        <v>95.16221602</v>
+        <v>100.75692343</v>
       </c>
       <c r="I63" t="n">
-        <v>84.60238074999999</v>
+        <v>102.03893536</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>100.02183878</v>
+        <v>100.47483849</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>100.27212342</v>
+        <v>100.08022202</v>
       </c>
       <c r="E64" t="n">
-        <v>99.84264711</v>
+        <v>99.6880848</v>
       </c>
       <c r="F64" t="n">
-        <v>98.32375544</v>
+        <v>101.66323917</v>
       </c>
       <c r="G64" t="n">
-        <v>99.74860381000001</v>
+        <v>101.40599826</v>
       </c>
       <c r="H64" t="n">
-        <v>95.32308533</v>
+        <v>102.99591374</v>
       </c>
       <c r="I64" t="n">
-        <v>99.40596128</v>
+        <v>113.99272839</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>98.79600084</v>
+        <v>100.85300615</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>100.58710867</v>
+        <v>100.01495721</v>
       </c>
       <c r="E65" t="n">
-        <v>101.44598404</v>
+        <v>99.43700642</v>
       </c>
       <c r="F65" t="n">
-        <v>107.79615274</v>
+        <v>96.77613045</v>
       </c>
       <c r="G65" t="n">
-        <v>101.68852228</v>
+        <v>100.55401686</v>
       </c>
       <c r="H65" t="n">
-        <v>97.97465606999999</v>
+        <v>104.16509608</v>
       </c>
       <c r="I65" t="n">
-        <v>113.94172357</v>
+        <v>104.47118358</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>99.00543587</v>
+        <v>105.6347149</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>101.00775861</v>
+        <v>100.24073038</v>
       </c>
       <c r="E66" t="n">
-        <v>101.87987385</v>
+        <v>100.90230726</v>
       </c>
       <c r="F66" t="n">
-        <v>105.82263487</v>
+        <v>100.14575709</v>
       </c>
       <c r="G66" t="n">
-        <v>100.54634432</v>
+        <v>102.6037959</v>
       </c>
       <c r="H66" t="n">
-        <v>100.61767131</v>
+        <v>109.43233351</v>
       </c>
       <c r="I66" t="n">
-        <v>95.79274407</v>
+        <v>113.10923869</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>98.72377007999999</v>
+        <v>98.05742945</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>100.32851082</v>
+        <v>100.15139249</v>
       </c>
       <c r="E67" t="n">
-        <v>100.79375444</v>
+        <v>98.21417895</v>
       </c>
       <c r="F67" t="n">
-        <v>96.19490519999999</v>
+        <v>93.89152061</v>
       </c>
       <c r="G67" t="n">
-        <v>99.21767719</v>
+        <v>98.50345495000001</v>
       </c>
       <c r="H67" t="n">
-        <v>100.92944424</v>
+        <v>100.80312552</v>
       </c>
       <c r="I67" t="n">
-        <v>87.93968982</v>
+        <v>91.61214339999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>99.2251449</v>
+        <v>98.98337023000001</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>100.26585838</v>
+        <v>100.15111859</v>
       </c>
       <c r="E68" t="n">
-        <v>100.32523912</v>
+        <v>99.03402325</v>
       </c>
       <c r="F68" t="n">
-        <v>99.68455895</v>
+        <v>94.14341191</v>
       </c>
       <c r="G68" t="n">
-        <v>100.30182125</v>
+        <v>99.09639004</v>
       </c>
       <c r="H68" t="n">
-        <v>99.27088291</v>
+        <v>96.21645214</v>
       </c>
       <c r="I68" t="n">
-        <v>102.58575381</v>
+        <v>97.93689543000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>101.38481207</v>
+        <v>100.02963269</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>100.37780955</v>
+        <v>100.05354259</v>
       </c>
       <c r="E69" t="n">
-        <v>102.54696829</v>
+        <v>100.91609812</v>
       </c>
       <c r="F69" t="n">
-        <v>103.45346756</v>
+        <v>98.45097161</v>
       </c>
       <c r="G69" t="n">
-        <v>102.43369597</v>
+        <v>99.17405742</v>
       </c>
       <c r="H69" t="n">
-        <v>101.27852257</v>
+        <v>97.33930561</v>
       </c>
       <c r="I69" t="n">
-        <v>117.79532846</v>
+        <v>90.67315335000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2013-01</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>102.87813555</v>
+        <v>100.67955011</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>101.10823086</v>
+        <v>99.97887731</v>
       </c>
       <c r="E70" t="n">
-        <v>104.02545243</v>
+        <v>101.67734854</v>
       </c>
       <c r="F70" t="n">
-        <v>101.79981765</v>
+        <v>98.20445135</v>
       </c>
       <c r="G70" t="n">
-        <v>103.13085239</v>
+        <v>99.97489976</v>
       </c>
       <c r="H70" t="n">
-        <v>104.7600852</v>
+        <v>94.20026477</v>
       </c>
       <c r="I70" t="n">
-        <v>114.68033707</v>
+        <v>99.13700262</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>105.57886303</v>
+        <v>100.38988129</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>100.68450196</v>
+        <v>100.07153319</v>
       </c>
       <c r="E71" t="n">
-        <v>102.327927</v>
+        <v>104.69618387</v>
       </c>
       <c r="F71" t="n">
-        <v>99.59944797</v>
+        <v>101.23005833</v>
       </c>
       <c r="G71" t="n">
-        <v>102.46843529</v>
+        <v>100.95455817</v>
       </c>
       <c r="H71" t="n">
-        <v>110.79787335</v>
+        <v>93.74882886</v>
       </c>
       <c r="I71" t="n">
-        <v>106.30301661</v>
+        <v>100.93538801</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>95.13328085000001</v>
+        <v>99.96055237</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>100.19430736</v>
+        <v>100.09401492</v>
       </c>
       <c r="E72" t="n">
-        <v>94.98651595</v>
+        <v>104.52565062</v>
       </c>
       <c r="F72" t="n">
-        <v>92.31204442000001</v>
+        <v>109.91910701</v>
       </c>
       <c r="G72" t="n">
-        <v>96.98791782000001</v>
+        <v>101.9894862</v>
       </c>
       <c r="H72" t="n">
-        <v>100.83935323</v>
+        <v>98.01262312</v>
       </c>
       <c r="I72" t="n">
-        <v>86.79632549999999</v>
+        <v>107.20867108</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>101.12195207</v>
+        <v>99.1925202</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>100.19184454</v>
+        <v>100.00187757</v>
       </c>
       <c r="E73" t="n">
-        <v>95.46300182</v>
+        <v>100.44210175</v>
       </c>
       <c r="F73" t="n">
-        <v>96.51609849</v>
+        <v>102.80740548</v>
       </c>
       <c r="G73" t="n">
-        <v>100.01704162</v>
+        <v>99.89174558000001</v>
       </c>
       <c r="H73" t="n">
-        <v>100.42998027</v>
+        <v>97.88538034</v>
       </c>
       <c r="I73" t="n">
-        <v>111.51010905</v>
+        <v>98.12281138</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>100.41118658</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
+        <v>98.10722411</v>
+      </c>
+      <c r="C74" t="n">
+        <v>98.01516746999999</v>
+      </c>
       <c r="D74" t="n">
-        <v>100.09367298</v>
-      </c>
-      <c r="E74" t="n">
-        <v>98.0879321</v>
-      </c>
+        <v>100.1361279</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
-        <v>99.60104446</v>
-      </c>
-      <c r="G74" t="n">
-        <v>98.48359357</v>
-      </c>
+        <v>95.54843293</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>101.51507548</v>
+        <v>98.01284305999989</v>
       </c>
       <c r="I74" t="n">
-        <v>87.54777563</v>
+        <v>98.77402447999989</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>100.45729525</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
+        <v>99.03573600999999</v>
+      </c>
+      <c r="C75" t="n">
+        <v>98.40397664</v>
+      </c>
       <c r="D75" t="n">
-        <v>99.95909768</v>
-      </c>
-      <c r="E75" t="n">
-        <v>102.88184822</v>
-      </c>
+        <v>100.1977386</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
-        <v>100.37195335</v>
-      </c>
-      <c r="G75" t="n">
-        <v>100.12827488</v>
-      </c>
+        <v>99.62323677000001</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>99.27793567000001</v>
+        <v>97.83463012</v>
       </c>
       <c r="I75" t="n">
-        <v>93.80106517999999</v>
+        <v>104.7232198</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>99.98718841</v>
-      </c>
-      <c r="C76" t="inlineStr"/>
+        <v>99.83392567999999</v>
+      </c>
+      <c r="C76" t="n">
+        <v>100.0726101</v>
+      </c>
       <c r="D76" t="n">
-        <v>100.23400209</v>
-      </c>
-      <c r="E76" t="n">
-        <v>101.02841766</v>
-      </c>
+        <v>100.2371246</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
-        <v>98.61603692</v>
-      </c>
-      <c r="G76" t="n">
-        <v>99.96658370999999</v>
-      </c>
+        <v>98.74078292</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>93.37446973</v>
+        <v>102.0058347</v>
       </c>
       <c r="I76" t="n">
-        <v>101.30125085</v>
+        <v>100.7760612</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>100.33369516</v>
-      </c>
-      <c r="C77" t="inlineStr"/>
+        <v>101.05093737</v>
+      </c>
+      <c r="C77" t="n">
+        <v>101.61379817</v>
+      </c>
       <c r="D77" t="n">
-        <v>100.35861204</v>
-      </c>
-      <c r="E77" t="n">
-        <v>102.95744744</v>
-      </c>
+        <v>99.94847842</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
-        <v>107.21715562</v>
-      </c>
-      <c r="G77" t="n">
-        <v>101.64020709</v>
-      </c>
+        <v>103.87712284</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>97.33229095</v>
+        <v>104.894775</v>
       </c>
       <c r="I77" t="n">
-        <v>108.74556487</v>
+        <v>107.20877902</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>100.38666375</v>
-      </c>
-      <c r="C78" t="inlineStr"/>
+        <v>105.2564476</v>
+      </c>
+      <c r="C78" t="n">
+        <v>105.50620185</v>
+      </c>
       <c r="D78" t="n">
-        <v>100.34840739</v>
-      </c>
-      <c r="E78" t="n">
-        <v>101.78605309</v>
-      </c>
+        <v>100.29488647</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
-        <v>106.99499487</v>
-      </c>
-      <c r="G78" t="n">
-        <v>101.67138916</v>
-      </c>
+        <v>100.10958309</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>105.1235869</v>
+        <v>107.1286579</v>
       </c>
       <c r="I78" t="n">
-        <v>107.07705193</v>
+        <v>129.44463465</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>98.58857507</v>
-      </c>
-      <c r="C79" t="inlineStr"/>
+        <v>96.60236904</v>
+      </c>
+      <c r="C79" t="n">
+        <v>98.87708725</v>
+      </c>
       <c r="D79" t="n">
-        <v>100.29724963</v>
-      </c>
-      <c r="E79" t="n">
-        <v>100.03568595</v>
-      </c>
+        <v>99.90695023000001</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
-        <v>94.12663884</v>
-      </c>
-      <c r="G79" t="n">
-        <v>99.4304647</v>
-      </c>
+        <v>91.6502014</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>98.13163521</v>
+        <v>97.14907095</v>
       </c>
       <c r="I79" t="n">
-        <v>96.62424294</v>
+        <v>95.05617058999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>99.5218996</v>
-      </c>
-      <c r="C80" t="inlineStr"/>
+        <v>100.43776065</v>
+      </c>
+      <c r="C80" t="n">
+        <v>102.18944497</v>
+      </c>
       <c r="D80" t="n">
-        <v>100.31015269</v>
-      </c>
-      <c r="E80" t="n">
-        <v>99.99890781000001</v>
-      </c>
+        <v>100.0072677</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
-        <v>98.68179915</v>
-      </c>
-      <c r="G80" t="n">
-        <v>99.63126626</v>
-      </c>
+        <v>98.66546196</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>99.73427902</v>
+        <v>98.08947284</v>
       </c>
       <c r="I80" t="n">
-        <v>95.36757835</v>
+        <v>89.02991355</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>100.71964323</v>
-      </c>
-      <c r="C81" t="inlineStr"/>
+        <v>100.82983088</v>
+      </c>
+      <c r="C81" t="n">
+        <v>101.69634256</v>
+      </c>
       <c r="D81" t="n">
-        <v>100.16344926</v>
-      </c>
-      <c r="E81" t="n">
-        <v>100.49714937</v>
-      </c>
+        <v>100.11984462</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>101.03406382</v>
-      </c>
-      <c r="G81" t="n">
-        <v>100.55581083</v>
-      </c>
+        <v>99.55387168</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>104.72903922</v>
+        <v>98.84238911</v>
       </c>
       <c r="I81" t="n">
-        <v>98.99667683</v>
+        <v>78.68335627</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>103.44129179</v>
-      </c>
-      <c r="C82" t="inlineStr"/>
+        <v>101.72292325</v>
+      </c>
+      <c r="C82" t="n">
+        <v>100.83101359</v>
+      </c>
       <c r="D82" t="n">
-        <v>100.26858322</v>
-      </c>
-      <c r="E82" t="n">
-        <v>99.8555168</v>
-      </c>
+        <v>100.0286754</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
-        <v>102.03934393</v>
-      </c>
-      <c r="G82" t="n">
-        <v>102.12994925</v>
-      </c>
+        <v>99.15226258</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>110.40022108</v>
+        <v>99.04086309</v>
       </c>
       <c r="I82" t="n">
-        <v>112.40128099</v>
+        <v>87.3328144</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>103.89606937</v>
-      </c>
-      <c r="C83" t="inlineStr"/>
+        <v>100.67258262</v>
+      </c>
+      <c r="C83" t="n">
+        <v>98.44418071</v>
+      </c>
       <c r="D83" t="n">
-        <v>100.26227142</v>
-      </c>
-      <c r="E83" t="n">
-        <v>98.57193927</v>
-      </c>
+        <v>100.0451385</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="n">
-        <v>96.88048468</v>
-      </c>
-      <c r="G83" t="n">
-        <v>101.24472937</v>
-      </c>
+        <v>98.51852629</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>108.04578134</v>
+        <v>97.33837908</v>
       </c>
       <c r="I83" t="n">
-        <v>107.7005514</v>
+        <v>102.69389074</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>97.52628373</v>
-      </c>
-      <c r="C84" t="inlineStr"/>
+        <v>99.51354721</v>
+      </c>
+      <c r="C84" t="n">
+        <v>99.18457634000001</v>
+      </c>
       <c r="D84" t="n">
-        <v>100.29164945</v>
-      </c>
-      <c r="E84" t="n">
-        <v>95.96355672</v>
-      </c>
+        <v>100.02335384</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
-        <v>98.63415311</v>
-      </c>
-      <c r="G84" t="n">
-        <v>98.22689076</v>
-      </c>
+        <v>103.76709164</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>98.70307323999999</v>
+        <v>98.19611385</v>
       </c>
       <c r="I84" t="n">
-        <v>94.73725089</v>
+        <v>108.33676795</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>99.5076303</v>
-      </c>
-      <c r="C85" t="inlineStr"/>
+        <v>99.87130397</v>
+      </c>
+      <c r="C85" t="n">
+        <v>99.89969053</v>
+      </c>
       <c r="D85" t="n">
-        <v>100.28206452</v>
-      </c>
-      <c r="E85" t="n">
-        <v>96.89766277</v>
-      </c>
+        <v>100.078210299999</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>103.57157588</v>
-      </c>
-      <c r="G85" t="n">
-        <v>98.67502591</v>
-      </c>
+        <v>106.2139559</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>101.56498109</v>
+        <v>104.927746799999</v>
       </c>
       <c r="I85" t="n">
-        <v>91.71476226999999</v>
+        <v>111.2738429</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>100.05561796</v>
-      </c>
-      <c r="C86" t="inlineStr"/>
+        <v>99.09190515</v>
+      </c>
+      <c r="C86" t="n">
+        <v>100.1661016</v>
+      </c>
       <c r="D86" t="n">
-        <v>100.19120633</v>
-      </c>
-      <c r="E86" t="n">
-        <v>102.85129205</v>
-      </c>
+        <v>100.138114</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
-        <v>109.51269926</v>
-      </c>
-      <c r="G86" t="n">
-        <v>100.3910404</v>
-      </c>
+        <v>95.16585511</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>102.48370411</v>
+        <v>99.8625012</v>
       </c>
       <c r="I86" t="n">
-        <v>91.47352544</v>
+        <v>99.93462344</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>100.06415682</v>
-      </c>
-      <c r="C87" t="inlineStr"/>
+        <v>98.60013881</v>
+      </c>
+      <c r="C87" t="n">
+        <v>99.38668549</v>
+      </c>
       <c r="D87" t="n">
-        <v>100.34770855</v>
-      </c>
-      <c r="E87" t="n">
-        <v>101.49103087</v>
-      </c>
+        <v>99.96891435000001</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
-        <v>96.79056862</v>
-      </c>
-      <c r="G87" t="n">
-        <v>99.75035407</v>
-      </c>
+        <v>102.3175008</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>98.57283323</v>
+        <v>101.2238911</v>
       </c>
       <c r="I87" t="n">
-        <v>94.81041499</v>
+        <v>94.84373295</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>100.20674353</v>
-      </c>
-      <c r="C88" t="inlineStr"/>
+        <v>100.8123559</v>
+      </c>
+      <c r="C88" t="n">
+        <v>100.9165246</v>
+      </c>
       <c r="D88" t="n">
-        <v>100.20110091</v>
-      </c>
-      <c r="E88" t="n">
-        <v>100.21393134</v>
-      </c>
+        <v>100.0644811</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
-        <v>104.15297898</v>
-      </c>
-      <c r="G88" t="n">
-        <v>100.03413442</v>
-      </c>
+        <v>104.6784469</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>93.90460994</v>
+        <v>105.6549741</v>
       </c>
       <c r="I88" t="n">
-        <v>102.52021777</v>
+        <v>101.4503755</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>99.83909934</v>
-      </c>
-      <c r="C89" t="inlineStr"/>
+        <v>103.5754735</v>
+      </c>
+      <c r="C89" t="n">
+        <v>102.545228</v>
+      </c>
       <c r="D89" t="n">
-        <v>100.30841087</v>
-      </c>
-      <c r="E89" t="n">
-        <v>102.87340531</v>
-      </c>
+        <v>100.3736596</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
-        <v>106.28347805</v>
-      </c>
-      <c r="G89" t="n">
-        <v>101.02771236</v>
-      </c>
+        <v>98.26207658</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>98.31407142</v>
+        <v>106.2784483</v>
       </c>
       <c r="I89" t="n">
-        <v>102.24533431</v>
+        <v>106.0917681</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>99.49745845</v>
-      </c>
-      <c r="C90" t="inlineStr"/>
+        <v>101.26543031</v>
+      </c>
+      <c r="C90" t="n">
+        <v>99.12028721999999</v>
+      </c>
       <c r="D90" t="n">
-        <v>100.35831681</v>
-      </c>
-      <c r="E90" t="n">
-        <v>101.61398708</v>
-      </c>
+        <v>100.23702451</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
-        <v>101.65369468</v>
-      </c>
-      <c r="G90" t="n">
-        <v>100.84056147</v>
-      </c>
+        <v>92.98525382</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>101.06452103</v>
+        <v>104.01284075</v>
       </c>
       <c r="I90" t="n">
-        <v>103.23088238</v>
+        <v>95.02229903</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>98.96537254</v>
-      </c>
-      <c r="C91" t="inlineStr"/>
+        <v>99.05125697</v>
+      </c>
+      <c r="C91" t="n">
+        <v>97.2917674</v>
+      </c>
       <c r="D91" t="n">
-        <v>100.14111817</v>
-      </c>
-      <c r="E91" t="n">
-        <v>99.95266101999999</v>
-      </c>
+        <v>100.0576166</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
-        <v>96.81607520999999</v>
-      </c>
-      <c r="G91" t="n">
-        <v>99.64620733</v>
-      </c>
+        <v>95.92592947</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>96.67751875</v>
+        <v>99.43976547</v>
       </c>
       <c r="I91" t="n">
-        <v>99.72966363</v>
+        <v>92.19595113</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>99.19515336000001</v>
-      </c>
-      <c r="C92" t="inlineStr"/>
+        <v>101.503924</v>
+      </c>
+      <c r="C92" t="n">
+        <v>98.71157999</v>
+      </c>
       <c r="D92" t="n">
-        <v>100.05521088</v>
-      </c>
-      <c r="E92" t="n">
-        <v>99.40641762</v>
-      </c>
+        <v>100.0233552</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
-        <v>98.86693941999999</v>
-      </c>
-      <c r="G92" t="n">
-        <v>99.53329499</v>
-      </c>
+        <v>98.94939386999999</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>98.91814969000001</v>
+        <v>101.996785</v>
       </c>
       <c r="I92" t="n">
-        <v>97.81298497</v>
+        <v>95.12649107</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>100.77586551</v>
-      </c>
-      <c r="C93" t="inlineStr"/>
+        <v>101.2313631</v>
+      </c>
+      <c r="C93" t="n">
+        <v>97.75920566000001</v>
+      </c>
       <c r="D93" t="n">
-        <v>100.06450056</v>
-      </c>
-      <c r="E93" t="n">
-        <v>99.69512159</v>
-      </c>
+        <v>100.1031587</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
-        <v>98.62698399</v>
-      </c>
-      <c r="G93" t="n">
-        <v>101.01785004</v>
-      </c>
+        <v>95.49106892</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>102.58989872</v>
+        <v>104.1695104</v>
       </c>
       <c r="I93" t="n">
-        <v>110.94054546</v>
+        <v>93.77858486</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>100.85300615</v>
-      </c>
-      <c r="C94" t="inlineStr"/>
+        <v>100.4572291</v>
+      </c>
+      <c r="C94" t="n">
+        <v>97.01927379</v>
+      </c>
       <c r="D94" t="n">
-        <v>100.01495721</v>
-      </c>
-      <c r="E94" t="n">
-        <v>99.43700642</v>
-      </c>
+        <v>100.0706127</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
-        <v>96.77613045</v>
-      </c>
-      <c r="G94" t="n">
-        <v>100.55401686</v>
-      </c>
+        <v>105.7880904</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>104.16509608</v>
+        <v>96.02267275</v>
       </c>
       <c r="I94" t="n">
-        <v>104.47118358</v>
+        <v>98.04682314999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>105.6347149</v>
-      </c>
-      <c r="C95" t="inlineStr"/>
+        <v>100.1604891</v>
+      </c>
+      <c r="C95" t="n">
+        <v>99.26425888999999</v>
+      </c>
       <c r="D95" t="n">
-        <v>100.24073038</v>
-      </c>
-      <c r="E95" t="n">
-        <v>100.90230726</v>
-      </c>
+        <v>100.0879275</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>100.14575709</v>
-      </c>
-      <c r="G95" t="n">
-        <v>102.6037959</v>
-      </c>
+        <v>103.1880053</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>109.43233351</v>
+        <v>90.94500192</v>
       </c>
       <c r="I95" t="n">
-        <v>113.10923869</v>
+        <v>106.3932426</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>98.05742945</v>
-      </c>
-      <c r="C96" t="inlineStr"/>
+        <v>99.35223209999999</v>
+      </c>
+      <c r="C96" t="n">
+        <v>101.036923</v>
+      </c>
       <c r="D96" t="n">
-        <v>100.15139249</v>
-      </c>
-      <c r="E96" t="n">
-        <v>98.21417895</v>
-      </c>
+        <v>100.1115617</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
-        <v>93.89152061</v>
-      </c>
-      <c r="G96" t="n">
-        <v>98.50345495000001</v>
-      </c>
+        <v>115.3584576</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>100.80312552</v>
+        <v>96.56185035</v>
       </c>
       <c r="I96" t="n">
-        <v>91.61214339999999</v>
+        <v>109.1600327</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>98.98337023000001</v>
-      </c>
-      <c r="C97" t="inlineStr"/>
+        <v>98.69695469</v>
+      </c>
+      <c r="C97" t="n">
+        <v>101.0865035</v>
+      </c>
       <c r="D97" t="n">
-        <v>100.15111859</v>
-      </c>
-      <c r="E97" t="n">
-        <v>99.03402325</v>
-      </c>
+        <v>100.2521736</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
-        <v>94.14341191</v>
-      </c>
-      <c r="G97" t="n">
-        <v>99.09639004</v>
-      </c>
+        <v>105.5838817</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>96.21645214</v>
+        <v>100.7641615</v>
       </c>
       <c r="I97" t="n">
-        <v>97.93689543000001</v>
+        <v>100.8704489</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>100.02963269</v>
-      </c>
-      <c r="C98" t="inlineStr"/>
+        <v>98.93379134</v>
+      </c>
+      <c r="C98" t="n">
+        <v>100.92954319</v>
+      </c>
       <c r="D98" t="n">
-        <v>100.05354259</v>
-      </c>
-      <c r="E98" t="n">
-        <v>100.91609812</v>
-      </c>
+        <v>99.99081327</v>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="n">
-        <v>98.45097161</v>
-      </c>
-      <c r="G98" t="n">
-        <v>99.17405742</v>
-      </c>
+        <v>96.47583003</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>97.33930561</v>
+        <v>100.9111159</v>
       </c>
       <c r="I98" t="n">
-        <v>90.67315335000001</v>
+        <v>97.16702056</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>100.67955011</v>
-      </c>
-      <c r="C99" t="inlineStr"/>
+        <v>99.73278136</v>
+      </c>
+      <c r="C99" t="n">
+        <v>99.73652869</v>
+      </c>
       <c r="D99" t="n">
-        <v>99.97887731</v>
-      </c>
-      <c r="E99" t="n">
-        <v>101.67734854</v>
-      </c>
+        <v>100.06420503</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="n">
-        <v>98.20445135</v>
-      </c>
-      <c r="G99" t="n">
-        <v>99.97489976</v>
-      </c>
+        <v>99.63736776</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>94.20026477</v>
+        <v>103.52380913</v>
       </c>
       <c r="I99" t="n">
-        <v>99.13700262</v>
+        <v>88.1126174</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>100.38988129</v>
-      </c>
-      <c r="C100" t="inlineStr"/>
+        <v>100.62542524</v>
+      </c>
+      <c r="C100" t="n">
+        <v>100.6141437</v>
+      </c>
       <c r="D100" t="n">
-        <v>100.07153319</v>
-      </c>
-      <c r="E100" t="n">
-        <v>104.69618387</v>
-      </c>
+        <v>100.05062244</v>
+      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
-        <v>101.23005833</v>
-      </c>
-      <c r="G100" t="n">
-        <v>100.95455817</v>
-      </c>
+        <v>98.66464628</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>93.74882886</v>
+        <v>101.87765953</v>
       </c>
       <c r="I100" t="n">
-        <v>100.93538801</v>
+        <v>103.04480954</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>99.96055237</v>
-      </c>
-      <c r="C101" t="inlineStr"/>
+        <v>102.277216</v>
+      </c>
+      <c r="C101" t="n">
+        <v>100.8322036</v>
+      </c>
       <c r="D101" t="n">
-        <v>100.09401492</v>
-      </c>
-      <c r="E101" t="n">
-        <v>104.52565062</v>
-      </c>
+        <v>100.053097</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
-        <v>109.91910701</v>
-      </c>
-      <c r="G101" t="n">
-        <v>101.9894862</v>
-      </c>
+        <v>100.8501982</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>98.01262312</v>
+        <v>105.5051404</v>
       </c>
       <c r="I101" t="n">
-        <v>107.20867108</v>
+        <v>108.8671359</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>99.1925202</v>
-      </c>
-      <c r="C102" t="inlineStr"/>
+        <v>107.627998</v>
+      </c>
+      <c r="C102" t="n">
+        <v>101.9924525</v>
+      </c>
       <c r="D102" t="n">
-        <v>100.00187757</v>
-      </c>
-      <c r="E102" t="n">
-        <v>100.44210175</v>
-      </c>
+        <v>100.1492291</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>102.80740548</v>
-      </c>
-      <c r="G102" t="n">
-        <v>99.89174558000001</v>
-      </c>
+        <v>100.8563603</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>97.88538034</v>
+        <v>107.8653883</v>
       </c>
       <c r="I102" t="n">
-        <v>98.12281138</v>
+        <v>117.2739361</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>98.92066397000001</v>
-      </c>
-      <c r="C103" t="inlineStr"/>
+        <v>96.39072009</v>
+      </c>
+      <c r="C103" t="n">
+        <v>93.94463140000001</v>
+      </c>
       <c r="D103" t="n">
-        <v>100.05794131</v>
-      </c>
-      <c r="E103" t="n">
-        <v>99.03327298000001</v>
-      </c>
+        <v>100.0772571</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
-        <v>93.20808009</v>
-      </c>
-      <c r="G103" t="n">
-        <v>98.93892707000001</v>
-      </c>
+        <v>90.90098338999999</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>98.3821476</v>
+        <v>97.45846699000001</v>
       </c>
       <c r="I103" t="n">
-        <v>94.50881136</v>
+        <v>85.15592809</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>98.91284</v>
-      </c>
-      <c r="C104" t="inlineStr"/>
+        <v>99.31076422</v>
+      </c>
+      <c r="C104" t="n">
+        <v>94.76718723</v>
+      </c>
       <c r="D104" t="n">
-        <v>99.85876621</v>
-      </c>
-      <c r="E104" t="n">
-        <v>98.27574604</v>
-      </c>
+        <v>100.0494958</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
-        <v>99.04174528</v>
-      </c>
-      <c r="G104" t="n">
-        <v>99.69291463</v>
-      </c>
+        <v>96.82809983</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>100.75692343</v>
+        <v>98.37730732</v>
       </c>
       <c r="I104" t="n">
-        <v>102.03893536</v>
+        <v>95.31769914</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>100.47483849</v>
-      </c>
-      <c r="C105" t="inlineStr"/>
+        <v>99.30666801</v>
+      </c>
+      <c r="C105" t="n">
+        <v>97.01173111999999</v>
+      </c>
       <c r="D105" t="n">
-        <v>100.08022202</v>
-      </c>
-      <c r="E105" t="n">
-        <v>99.6880848</v>
-      </c>
+        <v>100.0165196</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>101.66323917</v>
-      </c>
-      <c r="G105" t="n">
-        <v>101.40599826</v>
-      </c>
+        <v>101.7494673</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>102.99591374</v>
+        <v>97.74382858</v>
       </c>
       <c r="I105" t="n">
-        <v>113.99272839</v>
+        <v>95.32927655</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>101.05093737</v>
+        <v>99.44757573</v>
       </c>
       <c r="C106" t="n">
-        <v>101.61379817</v>
+        <v>100.40187041</v>
       </c>
       <c r="D106" t="n">
-        <v>99.94847842</v>
+        <v>99.97189323000001</v>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>103.87712284</v>
+        <v>99.81684314</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>104.894775</v>
+        <v>94.65756879</v>
       </c>
       <c r="I106" t="n">
-        <v>107.20877902</v>
+        <v>97.51216717</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>105.2564476</v>
+        <v>99.89124047999999</v>
       </c>
       <c r="C107" t="n">
-        <v>105.50620185</v>
+        <v>102.13667704</v>
       </c>
       <c r="D107" t="n">
-        <v>100.29488647</v>
+        <v>99.91669561</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
-        <v>100.10958309</v>
+        <v>99.90674611</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>107.1286579</v>
+        <v>95.85038486000001</v>
       </c>
       <c r="I107" t="n">
-        <v>129.44463465</v>
+        <v>100.77346034</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>96.60236904</v>
+        <v>99.88304874000001</v>
       </c>
       <c r="C108" t="n">
-        <v>98.87708725</v>
+        <v>104.9076008</v>
       </c>
       <c r="D108" t="n">
-        <v>99.90695023000001</v>
+        <v>99.93717592</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>91.6502014</v>
+        <v>112.95344287</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>97.14907095</v>
+        <v>101.72537954</v>
       </c>
       <c r="I108" t="n">
-        <v>95.05617058999999</v>
+        <v>109.56555501</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>100.43776065</v>
+        <v>99.34644462999999</v>
       </c>
       <c r="C109" t="n">
-        <v>102.18944497</v>
+        <v>103.0701499</v>
       </c>
       <c r="D109" t="n">
-        <v>100.0072677</v>
+        <v>100.10987441</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>98.66546196</v>
+        <v>102.61888301</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>98.08947284</v>
+        <v>106.11607271</v>
       </c>
       <c r="I109" t="n">
-        <v>89.02991355</v>
+        <v>109.69117555</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>100.82983088</v>
+        <v>99.13518203</v>
       </c>
       <c r="C110" t="n">
-        <v>101.69634256</v>
+        <v>115.80540495</v>
       </c>
       <c r="D110" t="n">
-        <v>100.11984462</v>
+        <v>99.95031447</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>99.55387168</v>
+        <v>98.76357004</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>98.84238911</v>
+        <v>94.06850651000001</v>
       </c>
       <c r="I110" t="n">
-        <v>78.68335627</v>
+        <v>98.06854103000001</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>101.72292325</v>
+        <v>99.14989233</v>
       </c>
       <c r="C111" t="n">
-        <v>100.83101359</v>
+        <v>104.59615183</v>
       </c>
       <c r="D111" t="n">
-        <v>100.0286754</v>
+        <v>100.21664679</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>99.15226258</v>
+        <v>99.07882644</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>99.04086309</v>
+        <v>96.74922359999999</v>
       </c>
       <c r="I111" t="n">
-        <v>87.3328144</v>
+        <v>101.46025709</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>100.67258262</v>
+        <v>99.97530064999999</v>
       </c>
       <c r="C112" t="n">
-        <v>98.44418071</v>
+        <v>95.93729449</v>
       </c>
       <c r="D112" t="n">
-        <v>100.0451385</v>
+        <v>100.10992167</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
-        <v>98.51852629</v>
+        <v>94.94947620000001</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>97.33837908</v>
+        <v>100.29428066</v>
       </c>
       <c r="I112" t="n">
-        <v>102.69389074</v>
+        <v>109.90143225</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>99.51354721</v>
+        <v>101.75606944</v>
       </c>
       <c r="C113" t="n">
-        <v>99.18457634000001</v>
+        <v>99.98713229000001</v>
       </c>
       <c r="D113" t="n">
-        <v>100.02335384</v>
+        <v>100.0734472</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>103.76709164</v>
+        <v>100.74685528</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>98.19611385</v>
+        <v>102.73952305</v>
       </c>
       <c r="I113" t="n">
-        <v>108.33676795</v>
+        <v>109.1493641</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>99.87130397</v>
+        <v>103.57007646</v>
       </c>
       <c r="C114" t="n">
-        <v>99.89969053</v>
+        <v>100.868341</v>
       </c>
       <c r="D114" t="n">
-        <v>100.078210299999</v>
+        <v>100.23891933</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
-        <v>106.2139559</v>
+        <v>94.98344290999999</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>104.927746799999</v>
+        <v>105.03790686</v>
       </c>
       <c r="I114" t="n">
-        <v>111.2738429</v>
+        <v>114.96683884</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>98.10722411</v>
+        <v>96.28825942</v>
       </c>
       <c r="C115" t="n">
-        <v>98.01516746999999</v>
+        <v>100.26178917</v>
       </c>
       <c r="D115" t="n">
-        <v>100.1361279</v>
+        <v>99.96008887000001</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
-        <v>95.54843293</v>
+        <v>94.04402431</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>98.01284305999989</v>
+        <v>100.11844964</v>
       </c>
       <c r="I115" t="n">
-        <v>98.77402447999989</v>
+        <v>97.3708834</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>99.03573600999999</v>
+        <v>100.27445017</v>
       </c>
       <c r="C116" t="n">
-        <v>98.40397664</v>
+        <v>101.32767857</v>
       </c>
       <c r="D116" t="n">
-        <v>100.1977386</v>
+        <v>100.00330112</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>99.62323677000001</v>
+        <v>103.0697033</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>97.83463012</v>
+        <v>103.58633832</v>
       </c>
       <c r="I116" t="n">
-        <v>104.7232198</v>
+        <v>97.05205173</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>99.83392567999999</v>
+        <v>100.1689371</v>
       </c>
       <c r="C117" t="n">
-        <v>100.0726101</v>
+        <v>99.53869267</v>
       </c>
       <c r="D117" t="n">
-        <v>100.2371246</v>
+        <v>100.00763127</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>98.74078292</v>
+        <v>106.97297441</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>102.0058347</v>
+        <v>110.18007292</v>
       </c>
       <c r="I117" t="n">
-        <v>100.7760612</v>
+        <v>92.02421751999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>103.5754735</v>
+        <v>99.58479489</v>
       </c>
       <c r="C118" t="n">
-        <v>102.545228</v>
+        <v>102.06055164</v>
       </c>
       <c r="D118" t="n">
-        <v>100.3736596</v>
+        <v>100.07488015</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
-        <v>98.26207658</v>
+        <v>97.62667107999999</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>106.2784483</v>
+        <v>105.74146553</v>
       </c>
       <c r="I118" t="n">
-        <v>106.0917681</v>
+        <v>89.82121976000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>101.26543031</v>
+        <v>100.73363741</v>
       </c>
       <c r="C119" t="n">
-        <v>99.12028721999999</v>
+        <v>105.78593405</v>
       </c>
       <c r="D119" t="n">
-        <v>100.23702451</v>
+        <v>99.98816997</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
-        <v>92.98525382</v>
+        <v>104.83471213</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>104.01284075</v>
+        <v>94.08534054</v>
       </c>
       <c r="I119" t="n">
-        <v>95.02229903</v>
+        <v>101.91743936</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>99.05125697</v>
+        <v>101.28364697</v>
       </c>
       <c r="C120" t="n">
-        <v>97.2917674</v>
+        <v>116.73447706</v>
       </c>
       <c r="D120" t="n">
-        <v>100.0576166</v>
+        <v>99.91070406</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>95.92592947</v>
+        <v>105.64006283</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>99.43976547</v>
+        <v>89.92816662</v>
       </c>
       <c r="I120" t="n">
-        <v>92.19595113</v>
+        <v>102.38449973</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>101.503924</v>
+        <v>100.41847821</v>
       </c>
       <c r="C121" t="n">
-        <v>98.71157999</v>
+        <v>116.07504942</v>
       </c>
       <c r="D121" t="n">
-        <v>100.0233552</v>
+        <v>100.10418499</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
-        <v>98.94939386999999</v>
+        <v>107.30797804</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>101.996785</v>
+        <v>92.03391013</v>
       </c>
       <c r="I121" t="n">
-        <v>95.12649107</v>
+        <v>98.80148699999999</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>101.2313631</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>97.75920566000001</v>
+        <v>94.8</v>
       </c>
       <c r="D122" t="n">
-        <v>100.1031587</v>
+        <v>100</v>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
-        <v>95.49106892</v>
+        <v>98.2</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>104.1695104</v>
+        <v>101.8</v>
       </c>
       <c r="I122" t="n">
-        <v>93.77858486</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>100.4572291</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>97.01927379</v>
+        <v>95</v>
       </c>
       <c r="D123" t="n">
-        <v>100.0706127</v>
+        <v>100.2</v>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
-        <v>105.7880904</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>96.02267275</v>
+        <v>99.3</v>
       </c>
       <c r="I123" t="n">
-        <v>98.04682314999999</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>100.1604891</v>
+        <v>100.7</v>
       </c>
       <c r="C124" t="n">
-        <v>99.26425888999999</v>
+        <v>105.2</v>
       </c>
       <c r="D124" t="n">
-        <v>100.0879275</v>
+        <v>100.1</v>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>103.1880053</v>
+        <v>102.8</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>90.94500192</v>
+        <v>103.4</v>
       </c>
       <c r="I124" t="n">
-        <v>106.3932426</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>99.35223209999999</v>
+        <v>103.61236956</v>
       </c>
       <c r="C125" t="n">
-        <v>101.036923</v>
+        <v>106.45548789</v>
       </c>
       <c r="D125" t="n">
-        <v>100.1115617</v>
+        <v>100.01882989</v>
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
-        <v>115.3584576</v>
+        <v>96.95587528999999</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>96.56185035</v>
+        <v>105.38277989</v>
       </c>
       <c r="I125" t="n">
-        <v>109.1600327</v>
+        <v>114.48731897</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>98.69695469</v>
+        <v>102.79414021</v>
       </c>
       <c r="C126" t="n">
-        <v>101.0865035</v>
+        <v>106.78937976</v>
       </c>
       <c r="D126" t="n">
-        <v>100.2521736</v>
+        <v>100.26782952</v>
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="n">
-        <v>105.5838817</v>
+        <v>93.24543623</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>100.7641615</v>
+        <v>104.3932452</v>
       </c>
       <c r="I126" t="n">
-        <v>100.8704489</v>
+        <v>110.11122508</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>99.09190515</v>
+        <v>96.87378406000001</v>
       </c>
       <c r="C127" t="n">
-        <v>100.1661016</v>
+        <v>94.81336854</v>
       </c>
       <c r="D127" t="n">
-        <v>100.138114</v>
+        <v>100.11001671</v>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="n">
-        <v>95.16585511</v>
+        <v>95.52006369</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>99.8625012</v>
+        <v>99.80458981</v>
       </c>
       <c r="I127" t="n">
-        <v>99.93462344</v>
+        <v>88.29213568999999</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>98.60013881</v>
+        <v>99.24722095</v>
       </c>
       <c r="C128" t="n">
-        <v>99.38668549</v>
+        <v>93.93187153</v>
       </c>
       <c r="D128" t="n">
-        <v>99.96891435000001</v>
+        <v>100.29626837</v>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
-        <v>102.3175008</v>
+        <v>97.70264206</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>101.2238911</v>
+        <v>98.08690482999999</v>
       </c>
       <c r="I128" t="n">
-        <v>94.84373295</v>
+        <v>92.2824581</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>100.8123559</v>
+        <v>101.46569418</v>
       </c>
       <c r="C129" t="n">
-        <v>100.9165246</v>
+        <v>93.54136699</v>
       </c>
       <c r="D129" t="n">
-        <v>100.0644811</v>
+        <v>100.45682781</v>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
-        <v>104.6784469</v>
+        <v>95.13782725</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>105.6549741</v>
+        <v>99.52627192</v>
       </c>
       <c r="I129" t="n">
-        <v>101.4503755</v>
+        <v>87.56115671000001</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>102.277216</v>
+        <v>100.50182683</v>
       </c>
       <c r="C130" t="n">
-        <v>100.8322036</v>
+        <v>102.61976268</v>
       </c>
       <c r="D130" t="n">
-        <v>100.053097</v>
+        <v>100.04253234</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
-        <v>100.8501982</v>
+        <v>96.12448474</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>105.5051404</v>
+        <v>93.35523593000001</v>
       </c>
       <c r="I130" t="n">
-        <v>108.8671359</v>
+        <v>101.18705785</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>107.627998</v>
+        <v>100.46897974</v>
       </c>
       <c r="C131" t="n">
-        <v>101.9924525</v>
+        <v>108.16912059</v>
       </c>
       <c r="D131" t="n">
-        <v>100.1492291</v>
+        <v>99.92422185</v>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
-        <v>100.8563603</v>
+        <v>103.31904932</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>107.8653883</v>
+        <v>95.18040133</v>
       </c>
       <c r="I131" t="n">
-        <v>117.2739361</v>
+        <v>107.00982367</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>96.39072009</v>
+        <v>99.70190829000001</v>
       </c>
       <c r="C132" t="n">
-        <v>93.94463140000001</v>
+        <v>101.59552289</v>
       </c>
       <c r="D132" t="n">
-        <v>100.0772571</v>
+        <v>100.00885995</v>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
-        <v>90.90098338999999</v>
+        <v>110.40886438</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>97.45846699000001</v>
+        <v>99.16693936</v>
       </c>
       <c r="I132" t="n">
-        <v>85.15592809</v>
+        <v>107.26211545</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>99.31076422</v>
+        <v>99.49716812</v>
       </c>
       <c r="C133" t="n">
-        <v>94.76718723</v>
+        <v>99.0108812</v>
       </c>
       <c r="D133" t="n">
-        <v>100.0494958</v>
+        <v>100.08405667</v>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="n">
-        <v>96.82809983</v>
+        <v>101.25440609</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>98.37730732</v>
+        <v>105.83007459</v>
       </c>
       <c r="I133" t="n">
-        <v>95.31769914</v>
+        <v>102.42620522</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>99.30666801</v>
+        <v>97.7</v>
       </c>
       <c r="C134" t="n">
-        <v>97.01173111999999</v>
+        <v>98.8</v>
       </c>
       <c r="D134" t="n">
-        <v>100.0165196</v>
+        <v>100.1</v>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
-        <v>101.7494673</v>
+        <v>98</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>97.74382858</v>
+        <v>101.8</v>
       </c>
       <c r="I134" t="n">
-        <v>95.32927655</v>
+        <v>115.1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>99.44757573</v>
+        <v>98</v>
       </c>
       <c r="C135" t="n">
-        <v>100.40187041</v>
+        <v>106.5</v>
       </c>
       <c r="D135" t="n">
-        <v>99.97189323000001</v>
+        <v>100.8</v>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
-        <v>99.81684314</v>
+        <v>103.1</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>94.65756879</v>
+        <v>104.6</v>
       </c>
       <c r="I135" t="n">
-        <v>97.51216717</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>99.89124047999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>102.13667704</v>
+        <v>100.7</v>
       </c>
       <c r="D136" t="n">
-        <v>99.91669561</v>
+        <v>100.4</v>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
-        <v>99.90674611</v>
+        <v>98.2</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>95.85038486000001</v>
+        <v>104.1</v>
       </c>
       <c r="I136" t="n">
-        <v>100.77346034</v>
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>99.88304874000001</v>
+        <v>102.1</v>
       </c>
       <c r="C137" t="n">
-        <v>104.9076008</v>
+        <v>104.3</v>
       </c>
       <c r="D137" t="n">
-        <v>99.93717592</v>
+        <v>100.3</v>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
-        <v>112.95344287</v>
+        <v>110.4</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>101.72537954</v>
+        <v>102.7</v>
       </c>
       <c r="I137" t="n">
-        <v>109.56555501</v>
+        <v>117.9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>99.34644462999999</v>
+        <v>107.6</v>
       </c>
       <c r="C138" t="n">
-        <v>103.0701499</v>
+        <v>98</v>
       </c>
       <c r="D138" t="n">
-        <v>100.10987441</v>
+        <v>100.4</v>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>102.61888301</v>
+        <v>96</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>106.11607271</v>
+        <v>106.8</v>
       </c>
       <c r="I138" t="n">
-        <v>109.69117555</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>98.93379134</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>100.92954319</v>
+        <v>92.8</v>
       </c>
       <c r="D139" t="n">
-        <v>99.99081327</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
-        <v>96.47583003</v>
+        <v>95.8</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>100.9111159</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="I139" t="n">
-        <v>97.16702056</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>99.73278136</v>
+        <v>103.8</v>
       </c>
       <c r="C140" t="n">
-        <v>99.73652869</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>100.06420503</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
-        <v>99.63736776</v>
+        <v>101</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>103.52380913</v>
+        <v>96.7</v>
       </c>
       <c r="I140" t="n">
-        <v>88.1126174</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>100.62542524</v>
+        <v>104.1</v>
       </c>
       <c r="C141" t="n">
-        <v>100.6141437</v>
+        <v>92.7</v>
       </c>
       <c r="D141" t="n">
-        <v>100.05062244</v>
+        <v>100</v>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
-        <v>98.66464628</v>
+        <v>102.9</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>101.87765953</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="I141" t="n">
-        <v>103.04480954</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>101.75606944</v>
+        <v>100.8</v>
       </c>
       <c r="C142" t="n">
-        <v>99.98713229000001</v>
+        <v>91.3</v>
       </c>
       <c r="D142" t="n">
-        <v>100.0734472</v>
+        <v>100</v>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
-        <v>100.74685528</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>102.73952305</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="I142" t="n">
-        <v>109.1493641</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>103.57007646</v>
+        <v>100.3</v>
       </c>
       <c r="C143" t="n">
-        <v>100.868341</v>
+        <v>98.5</v>
       </c>
       <c r="D143" t="n">
-        <v>100.23891933</v>
+        <v>100</v>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
-        <v>94.98344290999999</v>
+        <v>101.2</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>105.03790686</v>
+        <v>97</v>
       </c>
       <c r="I143" t="n">
-        <v>114.96683884</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>96.28825942</v>
+        <v>98.3</v>
       </c>
       <c r="C144" t="n">
-        <v>100.26178917</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D144" t="n">
-        <v>99.96008887000001</v>
+        <v>100.1</v>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
-        <v>94.04402431</v>
+        <v>107.8</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>100.11844964</v>
+        <v>100.3</v>
       </c>
       <c r="I144" t="n">
-        <v>97.3708834</v>
+        <v>109.3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>100.27445017</v>
+        <v>97.3</v>
       </c>
       <c r="C145" t="n">
-        <v>101.32767857</v>
+        <v>97.5</v>
       </c>
       <c r="D145" t="n">
-        <v>100.00330112</v>
+        <v>100</v>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
-        <v>103.0697033</v>
+        <v>99.8</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>103.58633832</v>
+        <v>100</v>
       </c>
       <c r="I145" t="n">
-        <v>97.05205173</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>100.1689371</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C146" t="n">
-        <v>99.53869267</v>
+        <v>106.1</v>
       </c>
       <c r="D146" t="n">
-        <v>100.00763127</v>
+        <v>100.1</v>
       </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
-        <v>106.97297441</v>
+        <v>102.6</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>110.18007292</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="I146" t="n">
-        <v>92.02421751999999</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>99.58479489</v>
+        <v>99</v>
       </c>
       <c r="C147" t="n">
-        <v>102.06055164</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D147" t="n">
-        <v>100.07488015</v>
+        <v>100.1</v>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
-        <v>97.62667107999999</v>
+        <v>101.5</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>105.74146553</v>
+        <v>101.8</v>
       </c>
       <c r="I147" t="n">
-        <v>89.82121976000001</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>100.73363741</v>
+        <v>99.8</v>
       </c>
       <c r="C148" t="n">
-        <v>105.78593405</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D148" t="n">
-        <v>99.98816997</v>
+        <v>100.1</v>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
-        <v>104.83471213</v>
+        <v>98.2</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>94.08534054</v>
+        <v>104.7</v>
       </c>
       <c r="I148" t="n">
-        <v>101.91743936</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>101.28364697</v>
+        <v>102.5</v>
       </c>
       <c r="C149" t="n">
-        <v>116.73447706</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D149" t="n">
-        <v>99.91070406</v>
+        <v>100.1</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
-        <v>105.64006283</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>89.92816662</v>
+        <v>107.1</v>
       </c>
       <c r="I149" t="n">
-        <v>102.38449973</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>100.41847821</v>
+        <v>104.9</v>
       </c>
       <c r="C150" t="n">
-        <v>116.07504942</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D150" t="n">
-        <v>100.10418499</v>
+        <v>100.2</v>
       </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
-        <v>107.30797804</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>92.03391013</v>
+        <v>103.9</v>
       </c>
       <c r="I150" t="n">
-        <v>98.80148699999999</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>99.13518203</v>
+        <v>97.7</v>
       </c>
       <c r="C151" t="n">
-        <v>115.80540495</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D151" t="n">
-        <v>99.95031447</v>
+        <v>100.7</v>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
-        <v>98.76357004</v>
+        <v>99.8</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>94.06850651000001</v>
+        <v>97.5</v>
       </c>
       <c r="I151" t="n">
-        <v>98.06854103000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>99.14989233</v>
+        <v>101</v>
       </c>
       <c r="C152" t="n">
-        <v>104.59615183</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D152" t="n">
-        <v>100.21664679</v>
+        <v>100.5</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
-        <v>99.07882644</v>
+        <v>105.6</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>96.74922359999999</v>
+        <v>104.2</v>
       </c>
       <c r="I152" t="n">
-        <v>101.46025709</v>
+        <v>97</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>99.97530064999999</v>
+        <v>99.5</v>
       </c>
       <c r="C153" t="n">
-        <v>95.93729449</v>
+        <v>102.7</v>
       </c>
       <c r="D153" t="n">
-        <v>100.10992167</v>
+        <v>100.3</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
-        <v>94.94947620000001</v>
+        <v>101.9</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>100.29428066</v>
+        <v>101.4</v>
       </c>
       <c r="I153" t="n">
-        <v>109.90143225</v>
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>103.61236956</v>
+        <v>99.2</v>
       </c>
       <c r="C154" t="n">
-        <v>106.45548789</v>
+        <v>102.1</v>
       </c>
       <c r="D154" t="n">
-        <v>100.01882989</v>
+        <v>100.2</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
-        <v>96.95587528999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>105.38277989</v>
+        <v>95.8</v>
       </c>
       <c r="I154" t="n">
-        <v>114.48731897</v>
+        <v>91.59999999999999</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>102.79414021</v>
+        <v>100.2</v>
       </c>
       <c r="C155" t="n">
-        <v>106.78937976</v>
+        <v>114</v>
       </c>
       <c r="D155" t="n">
-        <v>100.26782952</v>
+        <v>100</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
-        <v>93.24543623</v>
+        <v>100.4</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>104.3932452</v>
+        <v>95.8</v>
       </c>
       <c r="I155" t="n">
-        <v>110.11122508</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>96.87378406000001</v>
+        <v>100.4</v>
       </c>
       <c r="C156" t="n">
-        <v>94.81336854</v>
+        <v>101</v>
       </c>
       <c r="D156" t="n">
-        <v>100.11001671</v>
+        <v>100.1</v>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
-        <v>95.52006369</v>
+        <v>103.3</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>99.80458981</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="I156" t="n">
-        <v>88.29213568999999</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>99.24722095</v>
+        <v>100.7</v>
       </c>
       <c r="C157" t="n">
-        <v>93.93187153</v>
+        <v>103.5</v>
       </c>
       <c r="D157" t="n">
-        <v>100.29626837</v>
+        <v>100.2</v>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>97.70264206</v>
+        <v>105.5</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>98.08690482999999</v>
+        <v>101.5</v>
       </c>
       <c r="I157" t="n">
-        <v>92.2824581</v>
+        <v>107</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>101.46569418</v>
+        <v>104.4</v>
       </c>
       <c r="C158" t="n">
-        <v>93.54136699</v>
+        <v>93.3</v>
       </c>
       <c r="D158" t="n">
-        <v>100.45682781</v>
+        <v>100.2</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
-        <v>95.13782725</v>
+        <v>98.2</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>99.52627192</v>
+        <v>110.1</v>
       </c>
       <c r="I158" t="n">
-        <v>87.56115671000001</v>
+        <v>119.4</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>100.50182683</v>
+        <v>99</v>
       </c>
       <c r="C159" t="n">
-        <v>102.61976268</v>
+        <v>93.7</v>
       </c>
       <c r="D159" t="n">
-        <v>100.04253234</v>
+        <v>100.2</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
-        <v>96.12448474</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>93.35523593000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="I159" t="n">
-        <v>101.18705785</v>
+        <v>96</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>100.46897974</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C160" t="n">
-        <v>108.16912059</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D160" t="n">
-        <v>99.92422185</v>
+        <v>100</v>
       </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
-        <v>103.31904932</v>
+        <v>100</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>95.18040133</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I160" t="n">
-        <v>107.00982367</v>
+        <v>93.59999999999999</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>99.70190829000001</v>
+        <v>100.4</v>
       </c>
       <c r="C161" t="n">
-        <v>101.59552289</v>
+        <v>97.8</v>
       </c>
       <c r="D161" t="n">
-        <v>100.00885995</v>
+        <v>99.8</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
-        <v>110.40886438</v>
+        <v>99.7</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>99.16693936</v>
+        <v>100.8</v>
       </c>
       <c r="I161" t="n">
-        <v>107.26211545</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>99.49716812</v>
+        <v>100.4</v>
       </c>
       <c r="C162" t="n">
-        <v>99.0108812</v>
+        <v>98.8</v>
       </c>
       <c r="D162" t="n">
-        <v>100.08405667</v>
+        <v>99.7</v>
       </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
-        <v>101.25440609</v>
+        <v>98.8</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>105.83007459</v>
+        <v>99</v>
       </c>
       <c r="I162" t="n">
-        <v>102.42620522</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>99.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="C163" t="n">
-        <v>94.8</v>
+        <v>98.8</v>
       </c>
       <c r="D163" t="n">
         <v>100</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
-        <v>98.2</v>
+        <v>97.5</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>101.8</v>
+        <v>97.8</v>
       </c>
       <c r="I163" t="n">
-        <v>98.8</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>98.09999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="C164" t="n">
-        <v>95</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="n">
-        <v>98.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>99.3</v>
+        <v>93.8</v>
       </c>
       <c r="I164" t="n">
-        <v>94.5</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="C165" t="n">
-        <v>105.2</v>
-      </c>
-      <c r="D165" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="I165" t="n">
-        <v>107.8</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>104.3</v>
-      </c>
-      <c r="D166" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="n">
-        <v>110.4</v>
-      </c>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="I166" t="n">
-        <v>117.9</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>107.6</v>
-      </c>
-      <c r="C167" t="n">
-        <v>98</v>
-      </c>
-      <c r="D167" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="n">
-        <v>96</v>
-      </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="n">
-        <v>106.8</v>
-      </c>
-      <c r="I167" t="n">
-        <v>101.3</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="C168" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="D168" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="I168" t="n">
-        <v>86.5</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>103.8</v>
-      </c>
-      <c r="C169" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="D169" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="n">
-        <v>101</v>
-      </c>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="I169" t="n">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>104.1</v>
-      </c>
-      <c r="C170" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="D170" t="n">
-        <v>100</v>
-      </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="n">
-        <v>102.9</v>
-      </c>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="I170" t="n">
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="C171" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="D171" t="n">
-        <v>100</v>
-      </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="n">
-        <v>95.40000000000001</v>
-      </c>
-      <c r="I171" t="n">
-        <v>97.3</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="C172" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="D172" t="n">
-        <v>100</v>
-      </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="n">
-        <v>97</v>
-      </c>
-      <c r="I172" t="n">
-        <v>101.3</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="C173" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="D173" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="n">
-        <v>107.8</v>
-      </c>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="I173" t="n">
-        <v>109.3</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="C174" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D174" t="n">
-        <v>100</v>
-      </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="n">
-        <v>100</v>
-      </c>
-      <c r="I174" t="n">
-        <v>101.6</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="C175" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="D175" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="n">
-        <v>98</v>
-      </c>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="I175" t="n">
-        <v>115.1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>98</v>
-      </c>
-      <c r="C176" t="n">
-        <v>106.5</v>
-      </c>
-      <c r="D176" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="n">
-        <v>104.6</v>
-      </c>
-      <c r="I176" t="n">
-        <v>108.3</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="C177" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="D177" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="n">
-        <v>104.1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>92.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
   </sheetData>
